--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_GDP_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_GDP_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.4499999999999886</v>
       </c>
-      <c r="BA2">
-        <v>0.4499999999999886</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>0.2250000000000085</v>
       </c>
-      <c r="BA3">
-        <v>0.2250000000000085</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>0.2999999999999829</v>
-      </c>
       <c r="C4">
         <v>-0.3499999999999943</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>-0.3499999999999943</v>
       </c>
-      <c r="BA4">
-        <v>-0.3499999999999943</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>0.3500000000000085</v>
-      </c>
       <c r="C5">
         <v>0.25</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>0.25</v>
       </c>
-      <c r="BA5">
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="C6">
-        <v>0.3599999999999994</v>
-      </c>
       <c r="D6">
         <v>-0.8999999999999915</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>-0.8999999999999915</v>
       </c>
-      <c r="BA6">
-        <v>-0.8999999999999915</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>0.3250000000000028</v>
-      </c>
       <c r="D7">
         <v>-0.6500000000000057</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>-0.6500000000000057</v>
       </c>
-      <c r="BA7">
-        <v>-0.6500000000000057</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="D8">
-        <v>-0.4000000000000057</v>
-      </c>
       <c r="E8">
         <v>-0.7000000000000171</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>-0.7000000000000171</v>
       </c>
-      <c r="BA8">
-        <v>-0.7000000000000171</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.2750000000000057</v>
-      </c>
-      <c r="D9">
-        <v>-0.3000000000000114</v>
-      </c>
       <c r="E9">
         <v>0.2000000000000028</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA9">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>0.25</v>
-      </c>
-      <c r="D10">
-        <v>-0.2499999999999858</v>
-      </c>
-      <c r="E10">
-        <v>-0.2999999999999972</v>
-      </c>
       <c r="F10">
         <v>0.4999999999999858</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA10">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>0.1801723935108198</v>
-      </c>
-      <c r="D11">
-        <v>-0.3962566291014008</v>
-      </c>
-      <c r="E11">
-        <v>-0.3000000000000114</v>
-      </c>
       <c r="F11">
         <v>0.4200000000000017</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>0.4200000000000017</v>
       </c>
-      <c r="BA11">
-        <v>0.4200000000000017</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.1883142155216648</v>
-      </c>
-      <c r="D12">
-        <v>-0.3640811944758232</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.2000000000000028</v>
-      </c>
       <c r="G12">
         <v>1.099999999999994</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>1.099999999999994</v>
       </c>
-      <c r="BA12">
-        <v>1.099999999999994</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.220344353746522</v>
-      </c>
-      <c r="D13">
-        <v>-0.3918512818340624</v>
-      </c>
-      <c r="E13">
-        <v>0.25</v>
-      </c>
-      <c r="F13">
-        <v>0.2000000000000028</v>
-      </c>
       <c r="G13">
         <v>0.4999999999999858</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA13">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>0.2181174798932817</v>
-      </c>
-      <c r="D14">
-        <v>-0.3822721749959488</v>
-      </c>
-      <c r="E14">
-        <v>0.25</v>
-      </c>
-      <c r="F14">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="G14">
-        <v>0.2999999999999829</v>
-      </c>
       <c r="H14">
         <v>0.8</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>0.8</v>
       </c>
-      <c r="BA14">
-        <v>0.8</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>0.2034940929135615</v>
-      </c>
-      <c r="D15">
-        <v>-0.3881268255341119</v>
-      </c>
-      <c r="E15">
-        <v>-0.1331576911405609</v>
-      </c>
-      <c r="F15">
-        <v>0.09581814847322628</v>
-      </c>
-      <c r="G15">
-        <v>0.2999999999999829</v>
-      </c>
       <c r="H15">
         <v>0.3</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.3</v>
       </c>
-      <c r="BA15">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.2038351216165648</v>
-      </c>
-      <c r="D16">
-        <v>-0.3856796151383899</v>
-      </c>
-      <c r="E16">
-        <v>-0.1582628922027552</v>
-      </c>
-      <c r="F16">
-        <v>0.02435953969449202</v>
-      </c>
-      <c r="G16">
-        <v>0.3250000000000028</v>
-      </c>
-      <c r="H16">
-        <v>0.4</v>
-      </c>
       <c r="I16">
         <v>0.4</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>0.4</v>
       </c>
-      <c r="BA16">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.2104805509406121</v>
-      </c>
-      <c r="D17">
-        <v>-0.3869856472101433</v>
-      </c>
-      <c r="E17">
-        <v>-0.1961206482867415</v>
-      </c>
-      <c r="F17">
-        <v>-0.01228537286896449</v>
-      </c>
-      <c r="G17">
-        <v>0.3500000000000085</v>
-      </c>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
       <c r="I17">
         <v>0.5</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>0.5</v>
       </c>
-      <c r="BA17">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.2106297637622027</v>
-      </c>
-      <c r="D18">
-        <v>-0.3863922570048392</v>
-      </c>
-      <c r="E18">
-        <v>-0.2009738893130972</v>
-      </c>
-      <c r="F18">
-        <v>-0.02945981233967278</v>
-      </c>
-      <c r="G18">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="H18">
-        <v>0.5</v>
-      </c>
-      <c r="I18">
-        <v>0.6</v>
-      </c>
       <c r="J18">
         <v>-0.2</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>-0.2</v>
       </c>
-      <c r="BA18">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.2076237325445269</v>
-      </c>
-      <c r="D19">
-        <v>-0.3866915629251435</v>
-      </c>
-      <c r="E19">
-        <v>-0.2048698768231173</v>
-      </c>
-      <c r="F19">
-        <v>-0.03766244542319493</v>
-      </c>
-      <c r="G19">
-        <v>0.2943594501296863</v>
-      </c>
-      <c r="H19">
-        <v>0.4161237621830881</v>
-      </c>
-      <c r="I19">
-        <v>0.6</v>
-      </c>
       <c r="J19">
         <v>0.1</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.1</v>
       </c>
-      <c r="BA19">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.2074186493218795</v>
-      </c>
-      <c r="D20">
-        <v>-0.3865505937514182</v>
-      </c>
-      <c r="E20">
-        <v>-0.2055838363350847</v>
-      </c>
-      <c r="F20">
-        <v>-0.04156415116061436</v>
-      </c>
-      <c r="G20">
-        <v>0.2538037230908385</v>
-      </c>
-      <c r="H20">
-        <v>0.3819325686944908</v>
-      </c>
-      <c r="I20">
-        <v>0.6</v>
-      </c>
-      <c r="J20">
-        <v>0.2</v>
-      </c>
       <c r="K20">
         <v>0.1</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>0.1</v>
       </c>
-      <c r="BA20">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.2059988319959072</v>
-      </c>
-      <c r="F21">
-        <v>-0.04342167877342481</v>
-      </c>
-      <c r="G21">
-        <v>0.2195169864453467</v>
-      </c>
-      <c r="H21">
-        <v>0.3447636710891021</v>
-      </c>
-      <c r="I21">
-        <v>0.6</v>
-      </c>
-      <c r="J21">
-        <v>0.3</v>
-      </c>
       <c r="K21">
         <v>0.1</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>0.1</v>
       </c>
-      <c r="BA21">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.2060935006803318</v>
-      </c>
-      <c r="F22">
-        <v>-0.04430584624747161</v>
-      </c>
-      <c r="G22">
-        <v>0.1978403201267633</v>
-      </c>
-      <c r="H22">
-        <v>0.3201422398182193</v>
-      </c>
-      <c r="I22">
-        <v>0.6</v>
-      </c>
-      <c r="J22">
-        <v>0.3</v>
-      </c>
       <c r="K22">
-        <v>0.3</v>
+        <v>0.1046235006129702</v>
       </c>
       <c r="L22">
         <v>-0.3</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>-0.3</v>
       </c>
-      <c r="BA22">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.2061389254195882</v>
-      </c>
-      <c r="F23">
-        <v>-0.04472671946579954</v>
-      </c>
-      <c r="G23">
-        <v>0.1828395118138973</v>
-      </c>
-      <c r="H23">
-        <v>0.2998109040418008</v>
-      </c>
-      <c r="I23">
-        <v>0.5305985758190012</v>
-      </c>
-      <c r="J23">
-        <v>0.2479886453890995</v>
-      </c>
       <c r="K23">
-        <v>0.4</v>
+        <v>0.1063181286326612</v>
       </c>
       <c r="L23">
         <v>0.2</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.2</v>
       </c>
-      <c r="BA23">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.2061508490140978</v>
-      </c>
-      <c r="F24">
-        <v>-0.04492705790676608</v>
-      </c>
-      <c r="G24">
-        <v>0.1727660304730418</v>
-      </c>
-      <c r="H24">
-        <v>0.2847036553713319</v>
-      </c>
-      <c r="I24">
-        <v>0.5004848545545051</v>
-      </c>
-      <c r="J24">
-        <v>0.228401634454701</v>
-      </c>
       <c r="K24">
-        <v>0.4</v>
+        <v>0.108132033184912</v>
       </c>
       <c r="L24">
-        <v>0.3</v>
+        <v>0.02093481016585076</v>
       </c>
       <c r="M24">
         <v>0.8999999999999915</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>0.8999999999999915</v>
       </c>
-      <c r="BA24">
-        <v>0.8999999999999915</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.1659347780500879</v>
-      </c>
-      <c r="H25">
-        <v>0.2729141764003895</v>
-      </c>
-      <c r="I25">
-        <v>0.4669610176686008</v>
-      </c>
-      <c r="J25">
-        <v>0.2083409738605253</v>
-      </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.1092340583334045</v>
       </c>
       <c r="L25">
-        <v>0.4</v>
+        <v>0.09656872892627803</v>
       </c>
       <c r="M25">
         <v>0.4200000000000017</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>0.4200000000000017</v>
       </c>
-      <c r="BA25">
-        <v>0.4200000000000017</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.1613170912207471</v>
-      </c>
-      <c r="H26">
-        <v>0.2639240667002656</v>
-      </c>
-      <c r="I26">
-        <v>0.4435382571820469</v>
-      </c>
-      <c r="J26">
-        <v>0.1960094891768894</v>
-      </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.1101059331984305</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>0.07339456314991095</v>
       </c>
       <c r="M26">
-        <v>0.4000000000000057</v>
+        <v>0.4003768958268741</v>
       </c>
       <c r="N26">
         <v>0.3</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>0.3</v>
       </c>
-      <c r="BA26">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.1581924085474083</v>
-      </c>
-      <c r="H27">
-        <v>0.2569940124777358</v>
-      </c>
-      <c r="I27">
-        <v>0.4234932261967003</v>
-      </c>
-      <c r="J27">
-        <v>0.1864732308015111</v>
-      </c>
       <c r="K27">
-        <v>0.4031409425998894</v>
+        <v>0.1107097999882323</v>
       </c>
       <c r="L27">
-        <v>0.3512740967882811</v>
+        <v>0.08616613147869916</v>
       </c>
       <c r="M27">
-        <v>0.4000000000000057</v>
+        <v>0.311019785626572</v>
       </c>
       <c r="N27">
         <v>0.5</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0.5</v>
       </c>
-      <c r="BA27">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.1560787369277665</v>
-      </c>
-      <c r="H28">
-        <v>0.2516790592351569</v>
-      </c>
-      <c r="I28">
-        <v>0.407891285067067</v>
-      </c>
-      <c r="J28">
-        <v>0.1798745970449139</v>
-      </c>
       <c r="K28">
-        <v>0.3649172793312604</v>
+        <v>0.1111560604555112</v>
       </c>
       <c r="L28">
-        <v>0.3189894081546311</v>
+        <v>0.08418150576128525</v>
       </c>
       <c r="M28">
-        <v>0.4499999999999886</v>
+        <v>0.272379542378839</v>
       </c>
       <c r="N28">
-        <v>0.5</v>
+        <v>0.3357050288678888</v>
       </c>
       <c r="O28">
         <v>0.2999999999999829</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>0.2999999999999829</v>
       </c>
-      <c r="BA28">
-        <v>0.2999999999999829</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.3952128746939971</v>
-      </c>
-      <c r="J29">
-        <v>0.1750639375466959</v>
-      </c>
       <c r="K29">
-        <v>0.3250151978371488</v>
+        <v>0.1114754129504002</v>
       </c>
       <c r="L29">
-        <v>0.2710928238302662</v>
+        <v>0.0869939752153345</v>
       </c>
       <c r="M29">
-        <v>0.4999999999999858</v>
+        <v>0.2419216579549256</v>
       </c>
       <c r="N29">
-        <v>0.6</v>
+        <v>0.3034478976267116</v>
       </c>
       <c r="O29">
         <v>0.4000000000000057</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA29">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.385112682540622</v>
-      </c>
-      <c r="J30">
-        <v>0.1716430319213866</v>
-      </c>
       <c r="K30">
-        <v>0.2994746716313462</v>
+        <v>0.1117075908776342</v>
       </c>
       <c r="L30">
-        <v>0.2452241554268092</v>
+        <v>0.0874085050127355</v>
       </c>
       <c r="M30">
-        <v>0.4999999999999858</v>
+        <v>0.2233188576594248</v>
       </c>
       <c r="N30">
-        <v>0.6</v>
+        <v>0.2634114008792354</v>
       </c>
       <c r="O30">
-        <v>0.4499999999999886</v>
+        <v>0.2988567589773858</v>
       </c>
       <c r="P30">
         <v>0.2000000000000028</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA30">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.3769929582918747</v>
-      </c>
-      <c r="J31">
-        <v>0.169181540777781</v>
-      </c>
       <c r="K31">
-        <v>0.2791716173186882</v>
+        <v>0.1118750771489913</v>
       </c>
       <c r="L31">
-        <v>0.2239450770811807</v>
+        <v>0.08831744587270961</v>
       </c>
       <c r="M31">
-        <v>0.3924732619223021</v>
+        <v>0.2107909609745295</v>
       </c>
       <c r="N31">
-        <v>0.461188552189262</v>
+        <v>0.242140741560734</v>
       </c>
       <c r="O31">
-        <v>0.5200000000000102</v>
+        <v>0.2761287727268756</v>
       </c>
       <c r="P31">
         <v>0.4200000000000017</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.4200000000000017</v>
       </c>
-      <c r="BA31">
-        <v>0.4200000000000017</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.3704925472721635</v>
-      </c>
-      <c r="J32">
-        <v>0.1674202854006617</v>
-      </c>
-      <c r="K32">
-        <v>0.264615239778796</v>
-      </c>
       <c r="L32">
-        <v>0.2096873054471282</v>
+        <v>0.08873974464308312</v>
       </c>
       <c r="M32">
-        <v>0.3482466430094958</v>
+        <v>0.2026786691135016</v>
       </c>
       <c r="N32">
-        <v>0.4023007807683527</v>
+        <v>0.2270487270683497</v>
       </c>
       <c r="O32">
-        <v>0.5200000000000102</v>
+        <v>0.2497406719594809</v>
       </c>
       <c r="P32">
-        <v>0.4200000000000017</v>
+        <v>0.2908881094480192</v>
       </c>
       <c r="Q32">
         <v>0.6200000000000045</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.6200000000000045</v>
       </c>
-      <c r="BA32">
-        <v>0.6200000000000045</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.2536686600560293</v>
-      </c>
       <c r="L33">
-        <v>0.1991873650493019</v>
+        <v>0.08913155212399973</v>
       </c>
       <c r="M33">
-        <v>0.310498159394635</v>
+        <v>0.1973437275558065</v>
       </c>
       <c r="N33">
-        <v>0.3528575528926202</v>
+        <v>0.2175221119057336</v>
       </c>
       <c r="O33">
-        <v>0.5200000000000102</v>
+        <v>0.2354067275020657</v>
       </c>
       <c r="P33">
-        <v>0.4200000000000017</v>
+        <v>0.2804318723504513</v>
       </c>
       <c r="Q33">
         <v>0.4200000000000017</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0.4200000000000017</v>
       </c>
-      <c r="BA33">
-        <v>0.4200000000000017</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.2456190693109107</v>
-      </c>
-      <c r="L34">
-        <v>0.1917937976200376</v>
-      </c>
       <c r="M34">
-        <v>0.2869276546839978</v>
+        <v>0.193856782195698</v>
       </c>
       <c r="N34">
-        <v>0.3215051220396296</v>
+        <v>0.2112328686239132</v>
       </c>
       <c r="O34">
-        <v>0.5200000000000102</v>
+        <v>0.2252031065055106</v>
       </c>
       <c r="P34">
-        <v>0.4200000000000017</v>
+        <v>0.2531354137158273</v>
       </c>
       <c r="Q34">
-        <v>0.4000000000000057</v>
+        <v>0.3777325079828486</v>
       </c>
       <c r="R34">
         <v>0.3000000000000114</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>0.3000000000000114</v>
       </c>
-      <c r="BA34">
-        <v>0.3000000000000114</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.2396376465680684</v>
-      </c>
-      <c r="L35">
-        <v>0.1864771670111169</v>
-      </c>
       <c r="M35">
-        <v>0.2703669562677888</v>
+        <v>0.1915721364417562</v>
       </c>
       <c r="N35">
-        <v>0.2994916404922289</v>
+        <v>0.2071531757938429</v>
       </c>
       <c r="O35">
-        <v>0.418717082067576</v>
+        <v>0.2187058225996171</v>
       </c>
       <c r="P35">
-        <v>0.3425754355607594</v>
+        <v>0.2406695895562326</v>
       </c>
       <c r="Q35">
-        <v>0.4000000000000057</v>
+        <v>0.3262758172052356</v>
       </c>
       <c r="R35">
         <v>0.5400000000000063</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>0.5400000000000063</v>
       </c>
-      <c r="BA35">
-        <v>0.5400000000000063</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.2352146725643318</v>
-      </c>
-      <c r="L36">
-        <v>0.182691660754473</v>
-      </c>
-      <c r="M36">
-        <v>0.2592682381749269</v>
-      </c>
       <c r="N36">
-        <v>0.2846279681110051</v>
+        <v>0.2044886333418561</v>
       </c>
       <c r="O36">
-        <v>0.3763322884455257</v>
+        <v>0.2143833042558445</v>
       </c>
       <c r="P36">
-        <v>0.3117731818532747</v>
+        <v>0.2309224534195222</v>
       </c>
       <c r="Q36">
-        <v>0.4000000000000057</v>
+        <v>0.2982516924205516</v>
       </c>
       <c r="R36">
-        <v>0.5200000000000102</v>
+        <v>0.3761573701612624</v>
       </c>
       <c r="S36">
         <v>0.3400000000000034</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.3400000000000034</v>
       </c>
-      <c r="BA36">
-        <v>0.3400000000000034</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.2516910695613509</v>
-      </c>
       <c r="N37">
-        <v>0.2744431584168511</v>
+        <v>0.2027529875890587</v>
       </c>
       <c r="O37">
-        <v>0.3398574712183238</v>
+        <v>0.2115577111210343</v>
       </c>
       <c r="P37">
-        <v>0.2855263298620128</v>
+        <v>0.224899184844464</v>
       </c>
       <c r="Q37">
-        <v>0.4000000000000057</v>
+        <v>0.2780965967238228</v>
       </c>
       <c r="R37">
-        <v>0.5100000000000051</v>
+        <v>0.3522971979624626</v>
       </c>
       <c r="S37">
         <v>0.4399999999999977</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>0.4399999999999977</v>
       </c>
-      <c r="BA37">
-        <v>0.4399999999999977</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.2465558060565939</v>
-      </c>
-      <c r="N38">
-        <v>0.2675031951687746</v>
-      </c>
       <c r="O38">
-        <v>0.3167521971020965</v>
+        <v>0.209697681906516</v>
       </c>
       <c r="P38">
-        <v>0.2695176337683649</v>
+        <v>0.2208091632335256</v>
       </c>
       <c r="Q38">
-        <v>0.4000000000000057</v>
+        <v>0.2651466421590247</v>
       </c>
       <c r="R38">
-        <v>0.4699999999999989</v>
+        <v>0.3140051223016139</v>
       </c>
       <c r="S38">
-        <v>0.4399999999999977</v>
+        <v>0.3448548105119766</v>
       </c>
       <c r="T38">
         <v>0.4999999999999858</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA38">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.2430654420176586</v>
-      </c>
-      <c r="N39">
-        <v>0.2627642975575854</v>
-      </c>
       <c r="O39">
-        <v>0.3003351630737089</v>
+        <v>0.2084766773292948</v>
       </c>
       <c r="P39">
-        <v>0.2584053199549994</v>
+        <v>0.2181390690309299</v>
       </c>
       <c r="Q39">
-        <v>0.3417320480263631</v>
+        <v>0.2564563273231625</v>
       </c>
       <c r="R39">
-        <v>0.4490000000000123</v>
+        <v>0.294425786074822</v>
       </c>
       <c r="S39">
-        <v>0.4799999999999898</v>
+        <v>0.3250030481953103</v>
       </c>
       <c r="T39">
         <v>0.4999999999999858</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA39">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.2406957892781706</v>
-      </c>
-      <c r="N40">
-        <v>0.259530961639768</v>
-      </c>
-      <c r="O40">
-        <v>0.2891904264941966</v>
-      </c>
       <c r="P40">
-        <v>0.2510912606375236</v>
+        <v>0.2163675334726839</v>
       </c>
       <c r="Q40">
-        <v>0.3179770443363544</v>
+        <v>0.2507235435258571</v>
       </c>
       <c r="R40">
-        <v>0.4490000000000123</v>
+        <v>0.2798447267493512</v>
       </c>
       <c r="S40">
-        <v>0.4799999999999898</v>
+        <v>0.299837640725708</v>
       </c>
       <c r="T40">
-        <v>0.4490000000000123</v>
+        <v>0.4076695799458317</v>
       </c>
       <c r="U40">
         <v>0.6999999999999886</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.6999999999999886</v>
       </c>
-      <c r="BA40">
-        <v>0.6999999999999886</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.2814893824504168</v>
-      </c>
       <c r="P41">
-        <v>0.2461731850781094</v>
+        <v>0.2152000025831394</v>
       </c>
       <c r="Q41">
-        <v>0.2979125363652725</v>
+        <v>0.2469163820992713</v>
       </c>
       <c r="R41">
-        <v>0.4490000000000123</v>
+        <v>0.270551296105314</v>
       </c>
       <c r="S41">
-        <v>0.4799999999999898</v>
+        <v>0.2861962086959632</v>
       </c>
       <c r="T41">
-        <v>0.4490000000000123</v>
+        <v>0.37004398179916</v>
       </c>
       <c r="U41">
         <v>0.5999999999999943</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA41">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.2762048439294197</v>
-      </c>
-      <c r="P42">
-        <v>0.2428947599272275</v>
-      </c>
       <c r="Q42">
-        <v>0.2855007758030405</v>
+        <v>0.2443946544491341</v>
       </c>
       <c r="R42">
-        <v>0.4490000000000123</v>
+        <v>0.2642598697472828</v>
       </c>
       <c r="S42">
-        <v>0.4799999999999898</v>
+        <v>0.2761912208953466</v>
       </c>
       <c r="T42">
-        <v>0.4499999999999886</v>
+        <v>0.3378406421682937</v>
       </c>
       <c r="U42">
-        <v>0.4999999999999858</v>
+        <v>0.5035518423690919</v>
       </c>
       <c r="V42">
         <v>0.5999999999999943</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA42">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.272568656795578</v>
-      </c>
-      <c r="P43">
-        <v>0.240701662291218</v>
-      </c>
       <c r="Q43">
-        <v>0.2768663601313776</v>
+        <v>0.2427226367529663</v>
       </c>
       <c r="R43">
-        <v>0.3859194751576799</v>
+        <v>0.2601018885436057</v>
       </c>
       <c r="S43">
-        <v>0.4030164235697742</v>
+        <v>0.2697259741463394</v>
       </c>
       <c r="T43">
-        <v>0.4000000000000057</v>
+        <v>0.3178425382097183</v>
       </c>
       <c r="U43">
-        <v>0.4499999999999886</v>
+        <v>0.4438453446970202</v>
       </c>
       <c r="V43">
-        <v>0.6999999999999886</v>
+        <v>0.489289719146023</v>
       </c>
       <c r="W43">
         <v>0.6999999999999886</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.6999999999999886</v>
       </c>
-      <c r="BA43">
-        <v>0.6999999999999886</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.2700693316515767</v>
-      </c>
-      <c r="P44">
-        <v>0.2392366737959136</v>
-      </c>
-      <c r="Q44">
-        <v>0.2711351847662875</v>
-      </c>
       <c r="R44">
-        <v>0.3594836086595713</v>
+        <v>0.2573277217360639</v>
       </c>
       <c r="S44">
-        <v>0.371398966927001</v>
+        <v>0.2653324887458691</v>
       </c>
       <c r="T44">
-        <v>0.4000000000000057</v>
+        <v>0.3038089431911634</v>
       </c>
       <c r="U44">
-        <v>0.4499999999999886</v>
+        <v>0.400292666652732</v>
       </c>
       <c r="V44">
-        <v>0.5999999999999943</v>
+        <v>0.4424308702448281</v>
       </c>
       <c r="W44">
-        <v>0.6150000000000091</v>
+        <v>0.5416354660046434</v>
       </c>
       <c r="X44">
         <v>0.2999999999999829</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>0.2999999999999829</v>
       </c>
-      <c r="BA44">
-        <v>0.2999999999999829</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.2672605201772241</v>
-      </c>
       <c r="R45">
-        <v>0.3368461762947376</v>
+        <v>0.2554837589409168</v>
       </c>
       <c r="S45">
-        <v>0.3438883103371386</v>
+        <v>0.262407347947942</v>
       </c>
       <c r="T45">
-        <v>0.4000000000000057</v>
+        <v>0.2944360753114255</v>
       </c>
       <c r="U45">
-        <v>0.4499999999999886</v>
+        <v>0.3705549560749949</v>
       </c>
       <c r="V45">
-        <v>0.5999999999999943</v>
+        <v>0.4008893309951583</v>
       </c>
       <c r="W45">
-        <v>0.5490000000000066</v>
+        <v>0.4938811528451197</v>
       </c>
       <c r="X45">
-        <v>0.4000000000000057</v>
+        <v>0.3821590777971202</v>
       </c>
       <c r="Y45">
         <v>0.4999999999999716</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>0.4999999999999716</v>
       </c>
-      <c r="BA45">
-        <v>0.4999999999999716</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.2646599156007243</v>
-      </c>
-      <c r="R46">
-        <v>0.3225152361999578</v>
-      </c>
       <c r="S46">
-        <v>0.3266240014998616</v>
+        <v>0.2604436909885852</v>
       </c>
       <c r="T46">
-        <v>0.4000000000000057</v>
+        <v>0.2880523308025255</v>
       </c>
       <c r="U46">
-        <v>0.4499999999999886</v>
+        <v>0.3497186439740944</v>
       </c>
       <c r="V46">
-        <v>0.5500000000000114</v>
+        <v>0.374118455219305</v>
       </c>
       <c r="W46">
-        <v>0.4999999999999858</v>
+        <v>0.4412362790812048</v>
       </c>
       <c r="X46">
-        <v>0.4000000000000057</v>
+        <v>0.3373284577917373</v>
       </c>
       <c r="Y46">
-        <v>0.4999999999999858</v>
+        <v>0.3883798592561681</v>
       </c>
       <c r="Z46">
         <v>0.2</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.2</v>
       </c>
-      <c r="BA46">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.2629094483782555</v>
-      </c>
-      <c r="R47">
-        <v>0.3123614032911486</v>
-      </c>
       <c r="S47">
-        <v>0.3143427779273209</v>
+        <v>0.2591298707237335</v>
       </c>
       <c r="T47">
-        <v>0.3579052190406468</v>
+        <v>0.2837382882092181</v>
       </c>
       <c r="U47">
-        <v>0.3973336504665904</v>
+        <v>0.3352677868666307</v>
       </c>
       <c r="V47">
-        <v>0.4999999999999858</v>
+        <v>0.354641984618444</v>
       </c>
       <c r="W47">
-        <v>0.5999999999999943</v>
+        <v>0.4089295706501395</v>
       </c>
       <c r="X47">
-        <v>0.5490000000000066</v>
+        <v>0.3348523628880399</v>
       </c>
       <c r="Y47">
-        <v>0.5490000000000066</v>
+        <v>0.3837332398807566</v>
       </c>
       <c r="Z47">
-        <v>0.4</v>
+        <v>0.3030851724808015</v>
       </c>
       <c r="AA47">
         <v>0.09999999999999432</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA47">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.2617325327510653</v>
-      </c>
-      <c r="R48">
-        <v>0.30548017050509</v>
-      </c>
-      <c r="S48">
-        <v>0.3060414055058905</v>
-      </c>
       <c r="T48">
-        <v>0.3405468114660507</v>
+        <v>0.2808138400684157</v>
       </c>
       <c r="U48">
-        <v>0.3750348302711329</v>
+        <v>0.3252050659901919</v>
       </c>
       <c r="V48">
-        <v>0.4999999999999858</v>
+        <v>0.3411491708225709</v>
       </c>
       <c r="W48">
-        <v>0.4999999999999858</v>
+        <v>0.3843689983096671</v>
       </c>
       <c r="X48">
-        <v>0.4999999999999858</v>
+        <v>0.3249443775939602</v>
       </c>
       <c r="Y48">
-        <v>0.4999999999999858</v>
+        <v>0.3586735490094398</v>
       </c>
       <c r="Z48">
-        <v>0.4</v>
+        <v>0.2815282182224016</v>
       </c>
       <c r="AA48">
-        <v>0.2999999999999829</v>
+        <v>0.1939573889446377</v>
       </c>
       <c r="AB48">
         <v>-0.1</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>-0.1</v>
       </c>
-      <c r="BA48">
-        <v>-0.1</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.3007358217204308</v>
-      </c>
-      <c r="S49">
-        <v>0.3003147809168962</v>
-      </c>
       <c r="T49">
-        <v>0.3254293930639877</v>
+        <v>0.278833839823454</v>
       </c>
       <c r="U49">
-        <v>0.3553829744216654</v>
+        <v>0.3182091107296451</v>
       </c>
       <c r="V49">
-        <v>0.4999999999999858</v>
+        <v>0.3316192759186231</v>
       </c>
       <c r="W49">
-        <v>0.4999999999999858</v>
+        <v>0.3672625327901259</v>
       </c>
       <c r="X49">
-        <v>0.4490000000000123</v>
+        <v>0.3203131600854559</v>
       </c>
       <c r="Y49">
-        <v>0.4490000000000123</v>
+        <v>0.3473583613016882</v>
       </c>
       <c r="Z49">
-        <v>0.3</v>
+        <v>0.2945599911114251</v>
       </c>
       <c r="AA49">
-        <v>0.3500000000000085</v>
+        <v>0.2126892011677668</v>
       </c>
       <c r="AB49">
-        <v>0.3</v>
+        <v>0.08117376958513103</v>
       </c>
       <c r="AC49">
         <v>-0.09999999999999432</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="BA49">
-        <v>-0.09999999999999432</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.2974866608555713</v>
-      </c>
-      <c r="S50">
-        <v>0.2963965327409448</v>
-      </c>
-      <c r="T50">
-        <v>0.3159133157101796</v>
-      </c>
       <c r="U50">
-        <v>0.3427392814794837</v>
+        <v>0.3133422289452601</v>
       </c>
       <c r="V50">
-        <v>0.4999999999999858</v>
+        <v>0.3249399960360262</v>
       </c>
       <c r="W50">
-        <v>0.4999999999999858</v>
+        <v>0.354930170770547</v>
       </c>
       <c r="X50">
-        <v>0.4490000000000123</v>
+        <v>0.3164164652714498</v>
       </c>
       <c r="Y50">
-        <v>0.3500000000000085</v>
+        <v>0.3374889989903117</v>
       </c>
       <c r="Z50">
-        <v>0.3</v>
+        <v>0.295292590950412</v>
       </c>
       <c r="AA50">
-        <v>0.3500000000000085</v>
+        <v>0.2393636207453716</v>
       </c>
       <c r="AB50">
-        <v>0.3</v>
+        <v>0.1173092323384379</v>
       </c>
       <c r="AC50">
-        <v>0.09999999999999432</v>
+        <v>0.03298954995155907</v>
       </c>
       <c r="AD50">
         <v>0.08000000000004093</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>0.08000000000004093</v>
       </c>
-      <c r="BA50">
-        <v>0.08000000000004093</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.2952556604316721</v>
-      </c>
-      <c r="S51">
-        <v>0.2937067946661185</v>
-      </c>
-      <c r="T51">
-        <v>0.3091307681565372</v>
-      </c>
       <c r="U51">
-        <v>0.3335760046860615</v>
+        <v>0.3099573182730418</v>
       </c>
       <c r="V51">
-        <v>0.4468545520462411</v>
+        <v>0.3202443122056956</v>
       </c>
       <c r="W51">
-        <v>0.4468058883742859</v>
+        <v>0.3461612068616849</v>
       </c>
       <c r="X51">
-        <v>0.4040539118586372</v>
+        <v>0.3138711728537869</v>
       </c>
       <c r="Y51">
-        <v>0.2999999999999829</v>
+        <v>0.3310662953821094</v>
       </c>
       <c r="Z51">
-        <v>0.3</v>
+        <v>0.2983427174868397</v>
       </c>
       <c r="AA51">
-        <v>0.3500000000000085</v>
+        <v>0.2541725939659008</v>
       </c>
       <c r="AB51">
-        <v>0.3</v>
+        <v>0.169095903228364</v>
       </c>
       <c r="AC51">
-        <v>0.25</v>
+        <v>0.09044977157437045</v>
       </c>
       <c r="AD51">
-        <v>0.2399999999999949</v>
+        <v>0.1127756483860543</v>
       </c>
       <c r="AE51">
         <v>0.09999999999999432</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA51">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.2937253250099958</v>
-      </c>
-      <c r="S52">
-        <v>0.2918628145446679</v>
-      </c>
-      <c r="T52">
-        <v>0.304534552409748</v>
-      </c>
-      <c r="U52">
-        <v>0.3272450222029197</v>
-      </c>
       <c r="V52">
-        <v>0.4236089696040869</v>
+        <v>0.3169471509026951</v>
       </c>
       <c r="W52">
-        <v>0.4235604883526294</v>
+        <v>0.339891772525233</v>
       </c>
       <c r="X52">
-        <v>0.3850469180382905</v>
+        <v>0.3120360920870774</v>
       </c>
       <c r="Y52">
-        <v>0.2999999999999829</v>
+        <v>0.3263671064318763</v>
       </c>
       <c r="Z52">
-        <v>0.3</v>
+        <v>0.299734792542876</v>
       </c>
       <c r="AA52">
-        <v>0.3500000000000085</v>
+        <v>0.2656721950714671</v>
       </c>
       <c r="AB52">
-        <v>0.3</v>
+        <v>0.1982402477711738</v>
       </c>
       <c r="AC52">
-        <v>0.3490000000000038</v>
+        <v>0.1421025797229159</v>
       </c>
       <c r="AD52">
-        <v>0.289999999999992</v>
+        <v>0.1628733357964187</v>
       </c>
       <c r="AE52">
-        <v>-4.500000000000028</v>
+        <v>0.156969270181538</v>
       </c>
       <c r="AF52">
         <v>-11.9</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-11.9</v>
       </c>
-      <c r="BA52">
-        <v>-11.9</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.3013567679501551</v>
-      </c>
-      <c r="U53">
-        <v>0.3227879857971701</v>
-      </c>
-      <c r="V53">
-        <v>0.4021372933907497</v>
-      </c>
       <c r="W53">
-        <v>0.4021144231320367</v>
+        <v>0.3354191626706646</v>
       </c>
       <c r="X53">
-        <v>0.3679792409980043</v>
+        <v>0.3107653267371487</v>
       </c>
       <c r="Y53">
-        <v>0.2999999999999829</v>
+        <v>0.3230944172779297</v>
       </c>
       <c r="Z53">
-        <v>0.3</v>
+        <v>0.3009438359048665</v>
       </c>
       <c r="AA53">
-        <v>0.3500000000000085</v>
+        <v>0.2734127173790675</v>
       </c>
       <c r="AB53">
-        <v>0.3</v>
+        <v>0.2209842546293474</v>
       </c>
       <c r="AC53">
-        <v>0.3490000000000038</v>
+        <v>0.17601067422352</v>
       </c>
       <c r="AD53">
-        <v>0.3300000000000125</v>
+        <v>0.1909935123123443</v>
       </c>
       <c r="AE53">
-        <v>1.999999999999957</v>
+        <v>0.1855061882588809</v>
       </c>
       <c r="AF53">
-        <v>6.9</v>
+        <v>6.640000000000001</v>
       </c>
       <c r="AG53">
         <v>6.640000000000001</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>6.640000000000001</v>
       </c>
-      <c r="BA53">
-        <v>6.640000000000001</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.2991772935835657</v>
-      </c>
-      <c r="U54">
-        <v>0.319673479547116</v>
-      </c>
-      <c r="V54">
-        <v>0.3878012876523291</v>
-      </c>
-      <c r="W54">
-        <v>0.3878098940444548</v>
-      </c>
       <c r="X54">
-        <v>0.3569429783703345</v>
+        <v>0.3098709907189374</v>
       </c>
       <c r="Y54">
-        <v>0.2999999999999829</v>
+        <v>0.3207683054282016</v>
       </c>
       <c r="Z54">
-        <v>0.3</v>
+        <v>0.3017283700384627</v>
       </c>
       <c r="AA54">
-        <v>0.3500000000000085</v>
+        <v>0.2789314249799885</v>
       </c>
       <c r="AB54">
-        <v>0.3</v>
+        <v>0.2364608948393653</v>
       </c>
       <c r="AC54">
-        <v>0.3490000000000038</v>
+        <v>0.2010804342959542</v>
       </c>
       <c r="AD54">
-        <v>0.3400000000000034</v>
+        <v>0.2131154765043877</v>
       </c>
       <c r="AE54">
-        <v>1.699999999999989</v>
+        <v>0.2092202697359123</v>
       </c>
       <c r="AF54">
-        <v>3.8</v>
+        <v>-15.95166681931457</v>
       </c>
       <c r="AG54">
-        <v>2.752121286959607</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="AH54">
         <v>-0.4000000000000057</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="BA54">
-        <v>-0.4000000000000057</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.2976776889122213</v>
-      </c>
-      <c r="U55">
-        <v>0.3174907052421172</v>
-      </c>
-      <c r="V55">
-        <v>0.3769637064574732</v>
-      </c>
-      <c r="W55">
-        <v>0.3770079852871228</v>
-      </c>
-      <c r="X55">
-        <v>0.3488469255353196</v>
-      </c>
       <c r="Y55">
-        <v>0.341624392834728</v>
+        <v>0.319128945285004</v>
       </c>
       <c r="Z55">
-        <v>0.3349625422625019</v>
+        <v>0.302302032587824</v>
       </c>
       <c r="AA55">
-        <v>0.362393701478937</v>
+        <v>0.2827737578976517</v>
       </c>
       <c r="AB55">
-        <v>0.3275670909320967</v>
+        <v>0.2475795547544122</v>
       </c>
       <c r="AC55">
-        <v>0.3490000000000038</v>
+        <v>0.2187520475996464</v>
       </c>
       <c r="AD55">
-        <v>0.4000000000000057</v>
+        <v>0.2282611913506361</v>
       </c>
       <c r="AE55">
-        <v>1.499999999999986</v>
+        <v>0.2251540053875444</v>
       </c>
       <c r="AF55">
-        <v>2.2</v>
+        <v>15.09625481296274</v>
       </c>
       <c r="AG55">
-        <v>1.35673533549307</v>
+        <v>-0.5060480270988623</v>
       </c>
       <c r="AH55">
-        <v>0.5884439773270884</v>
+        <v>-0.7094799999999992</v>
       </c>
       <c r="AI55">
         <v>-0.7094799999999992</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>-0.7094799999999992</v>
       </c>
-      <c r="BA55">
-        <v>-0.7094799999999992</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.296647202397386</v>
-      </c>
-      <c r="U56">
-        <v>0.3159627045989706</v>
-      </c>
-      <c r="V56">
-        <v>0.3691740944989869</v>
-      </c>
-      <c r="W56">
-        <v>0.3692521572069852</v>
-      </c>
-      <c r="X56">
-        <v>0.3432059857730848</v>
-      </c>
-      <c r="Y56">
-        <v>0.3622072056086719</v>
-      </c>
       <c r="Z56">
-        <v>0.3515885991526291</v>
+        <v>0.3027004760953529</v>
       </c>
       <c r="AA56">
-        <v>0.368427436873143</v>
+        <v>0.2854750112314686</v>
       </c>
       <c r="AB56">
-        <v>0.3410213573877799</v>
+        <v>0.2553933407590792</v>
       </c>
       <c r="AC56">
-        <v>0.3490000000000038</v>
+        <v>0.2314443355496927</v>
       </c>
       <c r="AD56">
-        <v>0.4000000000000057</v>
+        <v>0.2392043666821698</v>
       </c>
       <c r="AE56">
-        <v>1.000000000000028</v>
+        <v>0.2367708412339042</v>
       </c>
       <c r="AF56">
-        <v>1.1</v>
+        <v>-24.56266951243239</v>
       </c>
       <c r="AG56">
-        <v>0.8250000000000028</v>
+        <v>0.5370439065114894</v>
       </c>
       <c r="AH56">
-        <v>2.600000000000009</v>
+        <v>0.6648223221362022</v>
       </c>
       <c r="AI56">
-        <v>2.056410000000014</v>
+        <v>1.310000000000016</v>
       </c>
       <c r="AJ56">
         <v>1.310000000000016</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>1.310000000000016</v>
       </c>
-      <c r="BA56">
-        <v>1.310000000000016</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.3634617738576386</v>
-      </c>
-      <c r="W57">
-        <v>0.3635707125584127</v>
-      </c>
-      <c r="X57">
-        <v>0.3391939791651806</v>
-      </c>
-      <c r="Y57">
-        <v>0.3752350372965571</v>
-      </c>
-      <c r="Z57">
-        <v>0.3623389404619867</v>
-      </c>
       <c r="AA57">
-        <v>0.3721836323547123</v>
+        <v>0.2873665144075864</v>
       </c>
       <c r="AB57">
-        <v>0.349467946089795</v>
+        <v>0.2609334334470314</v>
       </c>
       <c r="AC57">
-        <v>0.3490000000000038</v>
+        <v>0.240492897842138</v>
       </c>
       <c r="AD57">
-        <v>0.3799999999999955</v>
+        <v>0.2469435582862509</v>
       </c>
       <c r="AE57">
-        <v>0.3821739059768845</v>
+        <v>0.2449683970505173</v>
       </c>
       <c r="AF57">
-        <v>0.5</v>
+        <v>28.37894339460601</v>
       </c>
       <c r="AG57">
-        <v>0.4999999999999858</v>
+        <v>0.08849282923246159</v>
       </c>
       <c r="AH57">
-        <v>0.7060416926399853</v>
+        <v>0.0866279551910063</v>
       </c>
       <c r="AI57">
-        <v>1.84899999999999</v>
+        <v>-0.1672162723689008</v>
       </c>
       <c r="AJ57">
-        <v>3.560000000000002</v>
+        <v>1.52000000000001</v>
       </c>
       <c r="AK57">
         <v>1.52000000000001</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>1.52000000000001</v>
       </c>
-      <c r="BA57">
-        <v>1.52000000000001</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.3593063614266964</v>
-      </c>
-      <c r="W58">
-        <v>0.3594421478259995</v>
-      </c>
-      <c r="X58">
-        <v>0.3363640685969846</v>
-      </c>
-      <c r="Y58">
-        <v>0.3830863809364332</v>
-      </c>
-      <c r="Z58">
-        <v>0.3688035820182612</v>
-      </c>
-      <c r="AA58">
-        <v>0.3744108880437727</v>
-      </c>
       <c r="AB58">
-        <v>0.3545079720403455</v>
+        <v>0.2648474253845644</v>
       </c>
       <c r="AC58">
-        <v>0.3490000000000038</v>
+        <v>0.2469627180402632</v>
       </c>
       <c r="AD58">
-        <v>0.3400000000000034</v>
+        <v>0.2524632004005461</v>
       </c>
       <c r="AE58">
-        <v>0.3419376685053805</v>
+        <v>0.2508279322402591</v>
       </c>
       <c r="AF58">
-        <v>0.4</v>
+        <v>-40.43055604330879</v>
       </c>
       <c r="AG58">
-        <v>0.392417277716504</v>
+        <v>0.1402621508383868</v>
       </c>
       <c r="AH58">
-        <v>0.599752004175059</v>
+        <v>0.1410420876836158</v>
       </c>
       <c r="AI58">
-        <v>0.8564599999999984</v>
+        <v>0.188830437525213</v>
       </c>
       <c r="AJ58">
-        <v>1.500392903354637</v>
+        <v>-0.5630290803376266</v>
       </c>
       <c r="AK58">
-        <v>1.299999999999983</v>
+        <v>-0.539999999999992</v>
       </c>
       <c r="AL58">
         <v>-0.539999999999992</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>-0.539999999999992</v>
       </c>
-      <c r="BA58">
-        <v>-0.539999999999992</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.3562737784723597</v>
-      </c>
-      <c r="W59">
-        <v>0.356432371957264</v>
-      </c>
-      <c r="X59">
-        <v>0.3343613095543673</v>
-      </c>
-      <c r="Y59">
-        <v>0.3878607482800048</v>
-      </c>
-      <c r="Z59">
-        <v>0.3727522501516048</v>
-      </c>
-      <c r="AA59">
-        <v>0.3757433401776876</v>
-      </c>
-      <c r="AB59">
-        <v>0.3575438674930314</v>
-      </c>
       <c r="AC59">
-        <v>0.3545216120448076</v>
+        <v>0.2515833518123863</v>
       </c>
       <c r="AD59">
-        <v>0.3568035218465289</v>
+        <v>0.2563867392663555</v>
       </c>
       <c r="AE59">
-        <v>0.3581002348565173</v>
+        <v>0.2549949967169328</v>
       </c>
       <c r="AF59">
-        <v>0.3415949648536913</v>
+        <v>50.45797187788055</v>
       </c>
       <c r="AG59">
-        <v>0.3892477923702176</v>
+        <v>0.1807131491041924</v>
       </c>
       <c r="AH59">
-        <v>0.4639324016758237</v>
+        <v>0.2040537701817185</v>
       </c>
       <c r="AI59">
-        <v>0.48702</v>
+        <v>0.2689575588706604</v>
       </c>
       <c r="AJ59">
-        <v>0.4867323308394456</v>
+        <v>0.3723349383935797</v>
       </c>
       <c r="AK59">
-        <v>1.66</v>
+        <v>0.3607492030043</v>
       </c>
       <c r="AL59">
-        <v>-0.01</v>
+        <v>0.4652855479103435</v>
       </c>
       <c r="AM59">
         <v>0.4652855479103435</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>0.4652855479103435</v>
       </c>
-      <c r="BA59">
-        <v>0.4652855479103435</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.3540634741761982</v>
-      </c>
-      <c r="W60">
-        <v>0.3542410254281739</v>
-      </c>
-      <c r="X60">
-        <v>0.3329458295309966</v>
-      </c>
-      <c r="Y60">
-        <v>0.390759170970066</v>
-      </c>
-      <c r="Z60">
-        <v>0.3751558575752967</v>
-      </c>
-      <c r="AA60">
-        <v>0.3765391640873499</v>
-      </c>
-      <c r="AB60">
-        <v>0.3593692980776443</v>
-      </c>
-      <c r="AC60">
-        <v>0.3564450314609371</v>
-      </c>
       <c r="AD60">
-        <v>0.3556563220407168</v>
+        <v>0.2591793906618078</v>
       </c>
       <c r="AE60">
-        <v>0.3598102453613526</v>
+        <v>0.2579644160043561</v>
       </c>
       <c r="AF60">
-        <v>0.373025482895277</v>
+        <v>-68.42705394254276</v>
       </c>
       <c r="AG60">
-        <v>0.389918942900791</v>
+        <v>0.1554126594807912</v>
       </c>
       <c r="AH60">
-        <v>0.4396079355184761</v>
+        <v>0.1671301575370057</v>
       </c>
       <c r="AI60">
-        <v>0.45723</v>
+        <v>0.1716403620249612</v>
       </c>
       <c r="AJ60">
-        <v>0.4615552350996976</v>
+        <v>0.3029813490205726</v>
       </c>
       <c r="AK60">
-        <v>1.17</v>
+        <v>0.3023703903911198</v>
       </c>
       <c r="AL60">
-        <v>2.34</v>
+        <v>0.2487436932384753</v>
       </c>
       <c r="AM60">
-        <v>0.9923981685675987</v>
+        <v>0.38</v>
       </c>
       <c r="AN60">
         <v>0.38</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>0.38</v>
       </c>
-      <c r="BA60">
-        <v>0.38</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.3925192912228033</v>
-      </c>
-      <c r="Z61">
-        <v>0.3766200682816239</v>
-      </c>
-      <c r="AA61">
-        <v>0.3770146250294815</v>
-      </c>
-      <c r="AB61">
-        <v>0.360467266825835</v>
-      </c>
-      <c r="AC61">
-        <v>0.3580570267586979</v>
-      </c>
-      <c r="AD61">
-        <v>0.3582075452557967</v>
-      </c>
       <c r="AE61">
-        <v>0.3589086878402243</v>
+        <v>0.2600787175862454</v>
       </c>
       <c r="AF61">
-        <v>0.3750337954136781</v>
+        <v>87.99929594647777</v>
       </c>
       <c r="AG61">
-        <v>0.3905935028011953</v>
+        <v>0.1609336018508648</v>
       </c>
       <c r="AH61">
-        <v>0.4314074455284789</v>
+        <v>0.174362117474165</v>
       </c>
       <c r="AI61">
-        <v>0.4329</v>
+        <v>0.2039614547701648</v>
       </c>
       <c r="AJ61">
-        <v>0.4306032481654398</v>
+        <v>0.1704288578196521</v>
       </c>
       <c r="AK61">
-        <v>0.71</v>
+        <v>0.1714451341649184</v>
       </c>
       <c r="AL61">
-        <v>1.75</v>
+        <v>0.1738593868915001</v>
       </c>
       <c r="AM61">
-        <v>1.096664146006177</v>
+        <v>0.09325996839312677</v>
       </c>
       <c r="AN61">
-        <v>1.170483608733242</v>
+        <v>0.04</v>
       </c>
       <c r="AO61">
         <v>0.04</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>0.04</v>
       </c>
-      <c r="BA61">
-        <v>0.04</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.3935880949048176</v>
-      </c>
-      <c r="Z62">
-        <v>0.3775118773343735</v>
-      </c>
-      <c r="AA62">
-        <v>0.3772986707063832</v>
-      </c>
-      <c r="AB62">
-        <v>0.361127636434865</v>
-      </c>
-      <c r="AC62">
-        <v>0.3589466896687405</v>
-      </c>
-      <c r="AD62">
-        <v>0.3588989619198681</v>
-      </c>
-      <c r="AE62">
-        <v>0.3588416314177471</v>
-      </c>
       <c r="AF62">
-        <v>0.3692330127764643</v>
+        <v>-117.0891169931079</v>
       </c>
       <c r="AG62">
-        <v>0.3912714966652686</v>
+        <v>0.162059388785049</v>
       </c>
       <c r="AH62">
-        <v>0.4239375625172149</v>
+        <v>0.1766769676778613</v>
       </c>
       <c r="AI62">
-        <v>0.42597</v>
+        <v>0.2050729071210544</v>
       </c>
       <c r="AJ62">
-        <v>0.4251122424301368</v>
+        <v>0.2445352993096321</v>
       </c>
       <c r="AK62">
-        <v>0.49</v>
+        <v>0.2427523456997168</v>
       </c>
       <c r="AL62">
-        <v>0.8100000000000001</v>
+        <v>0.2467435009433963</v>
       </c>
       <c r="AM62">
-        <v>1.109885837708147</v>
+        <v>0.2428789418545575</v>
       </c>
       <c r="AN62">
-        <v>1.4</v>
+        <v>0.251753044592203</v>
       </c>
       <c r="AO62">
-        <v>-0.18</v>
+        <v>-0.29</v>
       </c>
       <c r="AP62">
         <v>-0.29</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-0.29</v>
       </c>
-      <c r="BA62">
-        <v>-0.29</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.3942371150654599</v>
-      </c>
-      <c r="Z63">
-        <v>0.3780550725109876</v>
-      </c>
-      <c r="AA63">
-        <v>0.3774683645398301</v>
-      </c>
-      <c r="AB63">
-        <v>0.3615248182655343</v>
-      </c>
-      <c r="AC63">
-        <v>0.3595316037710317</v>
-      </c>
-      <c r="AD63">
-        <v>0.359589289739901</v>
-      </c>
-      <c r="AE63">
-        <v>0.3588911794468717</v>
-      </c>
       <c r="AF63">
-        <v>0.370341307985364</v>
+        <v>152.3809548246846</v>
       </c>
       <c r="AG63">
-        <v>0.2487528339154855</v>
+        <v>0.1607780254243417</v>
       </c>
       <c r="AH63">
-        <v>0.179093121164565</v>
+        <v>0.1745261951410616</v>
       </c>
       <c r="AI63">
-        <v>0.1560602922317957</v>
+        <v>0.1991353723007983</v>
       </c>
       <c r="AJ63">
-        <v>0.2208536018697278</v>
+        <v>0.2333134871945635</v>
       </c>
       <c r="AK63">
-        <v>0.26</v>
+        <v>0.2324854685395523</v>
       </c>
       <c r="AL63">
-        <v>0.53</v>
+        <v>0.225817592451285</v>
       </c>
       <c r="AM63">
-        <v>0.8907665627173156</v>
+        <v>0.2236957501255629</v>
       </c>
       <c r="AN63">
-        <v>1.04</v>
+        <v>0.212836762623932</v>
       </c>
       <c r="AO63">
-        <v>-0.4</v>
+        <v>0.4419107756043438</v>
       </c>
       <c r="AP63">
-        <v>-0.39</v>
+        <v>-0.2078779574152918</v>
       </c>
       <c r="AQ63">
         <v>-0.2078779574152918</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>-0.2078779574152918</v>
       </c>
-      <c r="BA63">
-        <v>-0.2078779574152918</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.3946312251714205</v>
-      </c>
-      <c r="Z64">
-        <v>0.3783859265830921</v>
-      </c>
-      <c r="AA64">
-        <v>0.3775697423946563</v>
-      </c>
-      <c r="AB64">
-        <v>0.3617637042600565</v>
-      </c>
-      <c r="AC64">
-        <v>0.3598871309946596</v>
-      </c>
-      <c r="AD64">
-        <v>0.3599524241690031</v>
-      </c>
-      <c r="AE64">
-        <v>0.35889343752798</v>
-      </c>
-      <c r="AF64">
-        <v>0.3710429879445415</v>
-      </c>
       <c r="AG64">
-        <v>0.2951973619189077</v>
+        <v>0.161188200570488</v>
       </c>
       <c r="AH64">
-        <v>0.284584423424722</v>
+        <v>0.175153208983293</v>
       </c>
       <c r="AI64">
-        <v>0.2749833193140497</v>
+        <v>0.2017401982433585</v>
       </c>
       <c r="AJ64">
-        <v>0.3001846084300056</v>
+        <v>0.2254852090710882</v>
       </c>
       <c r="AK64">
-        <v>0.25</v>
+        <v>0.2247535819106294</v>
       </c>
       <c r="AL64">
-        <v>0.32</v>
+        <v>0.2228291601375119</v>
       </c>
       <c r="AM64">
-        <v>0.7368271734067955</v>
+        <v>0.2060923264406439</v>
       </c>
       <c r="AN64">
-        <v>0.8397473563905411</v>
+        <v>0.1930715510564666</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>0.1545180159141111</v>
       </c>
       <c r="AP64">
-        <v>0.06953162841598726</v>
+        <v>0.4411094403171276</v>
       </c>
       <c r="AQ64">
-        <v>0.06486426577477289</v>
+        <v>0.1206478331785803</v>
       </c>
       <c r="AR64">
         <v>0.1206478331785803</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>0.1206478331785803</v>
       </c>
-      <c r="BA64">
-        <v>0.1206478331785803</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.3601107627351638</v>
-      </c>
-      <c r="AD65">
-        <v>0.3602008394642374</v>
-      </c>
-      <c r="AE65">
-        <v>0.3588907518058324</v>
-      </c>
-      <c r="AF65">
-        <v>0.3706810806194533</v>
-      </c>
-      <c r="AG65">
-        <v>0.3067564040923376</v>
-      </c>
       <c r="AH65">
-        <v>0.2653368421436341</v>
+        <v>0.1751944480309247</v>
       </c>
       <c r="AI65">
-        <v>0.2639138452811839</v>
+        <v>0.2015105306641877</v>
       </c>
       <c r="AJ65">
-        <v>0.2943258041781354</v>
+        <v>0.2311182619751903</v>
       </c>
       <c r="AK65">
-        <v>0.21</v>
+        <v>0.230161985170299</v>
       </c>
       <c r="AL65">
-        <v>0.26</v>
+        <v>0.2278885572716106</v>
       </c>
       <c r="AM65">
-        <v>0.4835366100679694</v>
+        <v>0.2177571881406666</v>
       </c>
       <c r="AN65">
-        <v>0.617601205077456</v>
+        <v>0.2094446996110419</v>
       </c>
       <c r="AO65">
-        <v>0.48</v>
+        <v>0.1552213607146013</v>
       </c>
       <c r="AP65">
-        <v>0.551740489547953</v>
+        <v>0.1164959780847789</v>
       </c>
       <c r="AQ65">
-        <v>0.4553446893433346</v>
+        <v>0.2543042031204955</v>
       </c>
       <c r="AR65">
-        <v>0.18</v>
+        <v>-0.18</v>
       </c>
       <c r="AS65">
         <v>-0.18</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>-0.18</v>
       </c>
-      <c r="BA65">
-        <v>-0.18</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.360249316221852</v>
-      </c>
-      <c r="AD66">
-        <v>0.3603516038536764</v>
-      </c>
-      <c r="AE66">
-        <v>0.3588907023877009</v>
-      </c>
-      <c r="AF66">
-        <v>0.370653036524628</v>
-      </c>
-      <c r="AG66">
-        <v>0.2942663493618929</v>
-      </c>
-      <c r="AH66">
-        <v>0.2624243802778718</v>
-      </c>
       <c r="AI66">
-        <v>0.2507423454229656</v>
+        <v>0.2011820771011817</v>
       </c>
       <c r="AJ66">
-        <v>0.2869913198196448</v>
+        <v>0.2298689799339559</v>
       </c>
       <c r="AK66">
-        <v>0.21</v>
+        <v>0.22899730210481</v>
       </c>
       <c r="AL66">
-        <v>0.26</v>
+        <v>0.2260490401357288</v>
       </c>
       <c r="AM66">
-        <v>0.3460492607517462</v>
+        <v>0.2154168148790407</v>
       </c>
       <c r="AN66">
-        <v>0.42</v>
+        <v>0.2052591066212315</v>
       </c>
       <c r="AO66">
-        <v>0.48</v>
+        <v>0.2083940064190523</v>
       </c>
       <c r="AP66">
-        <v>0.502083469095723</v>
+        <v>0.1502607721783404</v>
       </c>
       <c r="AQ66">
-        <v>0.56137382150105</v>
+        <v>0.1292476018666434</v>
       </c>
       <c r="AR66">
-        <v>0.42</v>
+        <v>0.3173553891358581</v>
       </c>
       <c r="AS66">
-        <v>0.32</v>
+        <v>0.044</v>
       </c>
       <c r="AT66">
         <v>0.044</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>0.044</v>
       </c>
-      <c r="BA66">
-        <v>0.044</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.3603357319265785</v>
-      </c>
-      <c r="AD67">
-        <v>0.3604480285270246</v>
-      </c>
-      <c r="AE67">
-        <v>0.358890846055792</v>
-      </c>
-      <c r="AF67">
-        <v>0.3707210568241533</v>
-      </c>
-      <c r="AG67">
-        <v>0.2961793662535941</v>
-      </c>
-      <c r="AH67">
-        <v>0.2657029902248161</v>
-      </c>
-      <c r="AI67">
-        <v>0.2581705345394707</v>
-      </c>
       <c r="AJ67">
-        <v>0.2905244010870824</v>
+        <v>0.229458918325853</v>
       </c>
       <c r="AK67">
-        <v>0.3212986717857287</v>
+        <v>0.2285908663053479</v>
       </c>
       <c r="AL67">
-        <v>0.2776302136022694</v>
+        <v>0.2260222763424813</v>
       </c>
       <c r="AM67">
-        <v>0.1978706196946942</v>
+        <v>0.2144405163357129</v>
       </c>
       <c r="AN67">
-        <v>0.1528310092074667</v>
+        <v>0.2042876969873874</v>
       </c>
       <c r="AO67">
-        <v>0.51</v>
+        <v>0.1829206288605305</v>
       </c>
       <c r="AP67">
-        <v>0.4192972035713893</v>
+        <v>0.1946641015725379</v>
       </c>
       <c r="AQ67">
-        <v>0.5263959846508897</v>
+        <v>0.1638609297781341</v>
       </c>
       <c r="AR67">
-        <v>0.5</v>
+        <v>0.1362768543063203</v>
       </c>
       <c r="AS67">
-        <v>0.48</v>
+        <v>0.2635479942780027</v>
       </c>
       <c r="AT67">
-        <v>0.2939713448086394</v>
+        <v>-0.08251004046350374</v>
       </c>
       <c r="AU67">
         <v>-0.08251004046350374</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>-0.08251004046350374</v>
       </c>
-      <c r="BA67">
-        <v>-0.08251004046350374</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.3603894714531122</v>
-      </c>
-      <c r="AD68">
-        <v>0.3605082730329027</v>
-      </c>
-      <c r="AE68">
-        <v>0.3588908449156684</v>
-      </c>
-      <c r="AF68">
-        <v>0.3707088187599653</v>
-      </c>
-      <c r="AG68">
-        <v>0.2978973291169385</v>
-      </c>
-      <c r="AH68">
-        <v>0.2646086153088478</v>
-      </c>
-      <c r="AI68">
-        <v>0.2569207783295344</v>
-      </c>
-      <c r="AJ68">
-        <v>0.2900504080581431</v>
-      </c>
       <c r="AK68">
-        <v>0.2757954897911702</v>
+        <v>0.2289848993973324</v>
       </c>
       <c r="AL68">
-        <v>0.2701184718164645</v>
+        <v>0.2263568454334346</v>
       </c>
       <c r="AM68">
-        <v>0.285365366776016</v>
+        <v>0.215314382539419</v>
       </c>
       <c r="AN68">
-        <v>0.2998548273383546</v>
+        <v>0.2055022765601603</v>
       </c>
       <c r="AO68">
-        <v>0.48</v>
+        <v>0.1851615219732802</v>
       </c>
       <c r="AP68">
-        <v>0.3657167307479057</v>
+        <v>0.1672088793020669</v>
       </c>
       <c r="AQ68">
-        <v>0.4257107569248291</v>
+        <v>0.1707327385424165</v>
       </c>
       <c r="AR68">
-        <v>0.46</v>
+        <v>0.1298802272530261</v>
       </c>
       <c r="AS68">
-        <v>0.5611476945050384</v>
+        <v>0.1174504968672369</v>
       </c>
       <c r="AT68">
-        <v>0.4002364482404346</v>
+        <v>0.2779298649209153</v>
       </c>
       <c r="AU68">
-        <v>0.2143578612482884</v>
+        <v>0.2582525219575302</v>
       </c>
       <c r="AV68">
         <v>0.2582525219575302</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>0.2582525219575302</v>
       </c>
-      <c r="BA68">
-        <v>0.2582525219575302</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.2969770642148565</v>
-      </c>
-      <c r="AH69">
-        <v>0.264730274056881</v>
-      </c>
-      <c r="AI69">
-        <v>0.2563418907133723</v>
-      </c>
-      <c r="AJ69">
-        <v>0.289805818919521</v>
-      </c>
-      <c r="AK69">
-        <v>0.2813874512007871</v>
-      </c>
       <c r="AL69">
-        <v>0.2705713160116979</v>
+        <v>0.2262052871931527</v>
       </c>
       <c r="AM69">
-        <v>0.26979580719887</v>
+        <v>0.2150781750174361</v>
       </c>
       <c r="AN69">
-        <v>0.2756536988951687</v>
+        <v>0.2051025577932749</v>
       </c>
       <c r="AO69">
-        <v>0.44</v>
+        <v>0.1888362270447713</v>
       </c>
       <c r="AP69">
-        <v>0.2993727917628917</v>
+        <v>0.1720189995753965</v>
       </c>
       <c r="AQ69">
-        <v>0.2881898502275533</v>
+        <v>0.1609921206517125</v>
       </c>
       <c r="AR69">
-        <v>0.33</v>
+        <v>0.1666927620130436</v>
       </c>
       <c r="AS69">
-        <v>0.5031808943414688</v>
+        <v>0.1461680123444752</v>
       </c>
       <c r="AT69">
-        <v>0.4391745998095615</v>
+        <v>0.1299170568508881</v>
       </c>
       <c r="AU69">
-        <v>0.5113565490928664</v>
+        <v>0.1417554054120916</v>
       </c>
       <c r="AV69">
-        <v>0.43</v>
+        <v>-0.04717552522494373</v>
       </c>
       <c r="AW69">
         <v>-0.04717552522494373</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>-0.04717552522494373</v>
       </c>
-      <c r="BA69">
-        <v>-0.04717552522494373</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.2969555010131798</v>
-      </c>
-      <c r="AH70">
-        <v>0.2647938504471475</v>
-      </c>
-      <c r="AI70">
-        <v>0.2567839211026068</v>
-      </c>
-      <c r="AJ70">
-        <v>0.2899573233061191</v>
-      </c>
-      <c r="AK70">
-        <v>0.2844208406493621</v>
-      </c>
-      <c r="AL70">
-        <v>0.2715490896806727</v>
-      </c>
       <c r="AM70">
-        <v>0.2629472107002532</v>
+        <v>0.2150335837697814</v>
       </c>
       <c r="AN70">
-        <v>0.2640927397967868</v>
+        <v>0.2050727307387498</v>
       </c>
       <c r="AO70">
-        <v>0.42</v>
+        <v>0.1866676209831895</v>
       </c>
       <c r="AP70">
-        <v>0.244502720332008</v>
+        <v>0.1748431028935225</v>
       </c>
       <c r="AQ70">
-        <v>0.2306318627505419</v>
+        <v>0.1643492385622874</v>
       </c>
       <c r="AR70">
-        <v>0.33</v>
+        <v>0.1503334957067845</v>
       </c>
       <c r="AS70">
-        <v>0.3806835540682556</v>
+        <v>0.1596540999017688</v>
       </c>
       <c r="AT70">
-        <v>0.4401293578968364</v>
+        <v>0.1336686757358243</v>
       </c>
       <c r="AU70">
-        <v>0.5319922642991344</v>
+        <v>0.1340759023412726</v>
       </c>
       <c r="AV70">
-        <v>0.52</v>
+        <v>0.2217701277233653</v>
       </c>
       <c r="AW70">
-        <v>0.21</v>
+        <v>0.2142297805489477</v>
       </c>
       <c r="AX70">
         <v>0.2142297805489477</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.2142297805489477</v>
       </c>
-      <c r="BA70">
-        <v>0.2142297805489477</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.2971351858923992</v>
-      </c>
-      <c r="AH71">
-        <v>0.2647538123683092</v>
-      </c>
-      <c r="AI71">
-        <v>0.2566785268468429</v>
-      </c>
-      <c r="AJ71">
-        <v>0.289928543858564</v>
-      </c>
-      <c r="AK71">
-        <v>0.2825269399791407</v>
-      </c>
-      <c r="AL71">
-        <v>0.2710619110691386</v>
-      </c>
-      <c r="AM71">
-        <v>0.2684412206705217</v>
-      </c>
       <c r="AN71">
-        <v>0.2728156688429477</v>
+        <v>0.2051589297440772</v>
       </c>
       <c r="AO71">
-        <v>0.05566438967911932</v>
+        <v>0.187017022226495</v>
       </c>
       <c r="AP71">
-        <v>0.1509766706856408</v>
+        <v>0.1726007031046216</v>
       </c>
       <c r="AQ71">
-        <v>0.169602265073141</v>
+        <v>0.1645695013080997</v>
       </c>
       <c r="AR71">
-        <v>0.1057543469981546</v>
+        <v>0.1512696552912019</v>
       </c>
       <c r="AS71">
-        <v>0.3317631665228618</v>
+        <v>0.1479000213884167</v>
       </c>
       <c r="AT71">
-        <v>0.3995464824356247</v>
+        <v>0.159247164077529</v>
       </c>
       <c r="AU71">
-        <v>0.4438035404671155</v>
+        <v>0.1592980161242431</v>
       </c>
       <c r="AV71">
-        <v>0.46</v>
+        <v>0.1503254029721728</v>
       </c>
       <c r="AW71">
-        <v>0.313</v>
+        <v>0.1638049431712499</v>
       </c>
       <c r="AX71">
-        <v>0.1997641087852884</v>
+        <v>0.2394371574146135</v>
       </c>
       <c r="AY71">
         <v>0.2394371574146135</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>0.2394371574146135</v>
       </c>
-      <c r="BA71">
-        <v>0.2394371574146135</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.2970805143200193</v>
-      </c>
-      <c r="AH72">
-        <v>0.2647642180539461</v>
-      </c>
-      <c r="AI72">
-        <v>0.2566576279161589</v>
-      </c>
-      <c r="AJ72">
-        <v>0.2899213113404545</v>
-      </c>
-      <c r="AK72">
-        <v>0.2829466178230869</v>
-      </c>
-      <c r="AL72">
-        <v>0.2711170965577751</v>
-      </c>
-      <c r="AM72">
-        <v>0.2670770967557529</v>
-      </c>
-      <c r="AN72">
-        <v>0.2707326339946282</v>
-      </c>
       <c r="AO72">
-        <v>0.2311186710933796</v>
+        <v>0.1872542545673511</v>
       </c>
       <c r="AP72">
-        <v>0.2053127227427345</v>
+        <v>0.1731431300096526</v>
       </c>
       <c r="AQ72">
-        <v>0.2090634466964379</v>
+        <v>0.1638373726666213</v>
       </c>
       <c r="AR72">
-        <v>0.2121516631864875</v>
+        <v>0.1538735389640124</v>
       </c>
       <c r="AS72">
-        <v>0.2588354823876813</v>
+        <v>0.1509867750706406</v>
       </c>
       <c r="AT72">
-        <v>0.3</v>
+        <v>0.1463902660493472</v>
       </c>
       <c r="AU72">
-        <v>0.3505327396020164</v>
+        <v>0.1487228631460978</v>
       </c>
       <c r="AV72">
-        <v>0.39</v>
+        <v>0.1345656837538846</v>
       </c>
       <c r="AW72">
-        <v>0.42</v>
+        <v>0.1393963156784102</v>
       </c>
       <c r="AX72">
-        <v>0.15047372915447</v>
+        <v>0.108689442022687</v>
       </c>
       <c r="AY72">
-        <v>0.2008403794809794</v>
+        <v>0.04717883418304325</v>
       </c>
       <c r="AZ72">
         <v>0.04717883418304325</v>
       </c>
-      <c r="BA72">
-        <v>0.04717883418304325</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.2829964458632384</v>
-      </c>
-      <c r="AL73">
-        <v>0.2711695111902607</v>
-      </c>
-      <c r="AM73">
-        <v>0.2668188273060197</v>
-      </c>
-      <c r="AN73">
-        <v>0.2703306603481892</v>
-      </c>
-      <c r="AO73">
-        <v>0.2149021551468746</v>
-      </c>
       <c r="AP73">
-        <v>0.1968533542660567</v>
+        <v>0.1733025067987494</v>
       </c>
       <c r="AQ73">
-        <v>0.2016186065183709</v>
+        <v>0.1641450459215858</v>
       </c>
       <c r="AR73">
-        <v>0.2030953499062952</v>
+        <v>0.1524574769975088</v>
       </c>
       <c r="AS73">
-        <v>0.2150495036779461</v>
+        <v>0.1517023763131844</v>
       </c>
       <c r="AT73">
-        <v>0.24</v>
+        <v>0.1477755273918602</v>
       </c>
       <c r="AU73">
-        <v>0.3087982760018804</v>
+        <v>0.1490831301436867</v>
       </c>
       <c r="AV73">
-        <v>0.32</v>
+        <v>0.1552777096102017</v>
       </c>
       <c r="AW73">
-        <v>0.4476495795507702</v>
+        <v>0.1603498148320129</v>
       </c>
       <c r="AX73">
-        <v>0.1088966743764388</v>
+        <v>0.1663063714359373</v>
       </c>
       <c r="AY73">
-        <v>0.1461563307127136</v>
+        <v>0.1803065198736971</v>
       </c>
       <c r="AZ73">
-        <v>0.09547648014918764</v>
-      </c>
-      <c r="BA73">
         <v>0.0959495356205764</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.2829270113511303</v>
-      </c>
-      <c r="AL74">
-        <v>0.2711385780249967</v>
-      </c>
-      <c r="AM74">
-        <v>0.2671482822159404</v>
-      </c>
-      <c r="AN74">
-        <v>0.2708212475251791</v>
-      </c>
-      <c r="AO74">
-        <v>0.1905152510986401</v>
-      </c>
-      <c r="AP74">
-        <v>0.190840902432725</v>
-      </c>
       <c r="AQ74">
-        <v>0.1978828402762325</v>
+        <v>0.1641352326846053</v>
       </c>
       <c r="AR74">
-        <v>0.1877370862044144</v>
+        <v>0.1526471421910084</v>
       </c>
       <c r="AS74">
-        <v>0.1955592423774846</v>
+        <v>0.1507882205770953</v>
       </c>
       <c r="AT74">
-        <v>0.1937436086810038</v>
+        <v>0.1494935933271427</v>
       </c>
       <c r="AU74">
-        <v>0.2817608875922701</v>
+        <v>0.1508697467044979</v>
       </c>
       <c r="AV74">
-        <v>0.28</v>
+        <v>0.1483399087896433</v>
       </c>
       <c r="AW74">
-        <v>0.35</v>
+        <v>0.1548979203189954</v>
       </c>
       <c r="AX74">
-        <v>0.1026967013396813</v>
+        <v>0.1631106115241781</v>
       </c>
       <c r="AY74">
-        <v>0.129482876906593</v>
+        <v>0.1522749183927714</v>
       </c>
       <c r="AZ74">
-        <v>0.2122469267199563</v>
-      </c>
-      <c r="BA74">
-        <v>0.210242839568366</v>
+        <v>0.1776542675889859</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.2829495736521213</v>
-      </c>
-      <c r="AL75">
-        <v>0.2711435888720281</v>
-      </c>
-      <c r="AM75">
-        <v>0.2670424961396191</v>
-      </c>
-      <c r="AN75">
-        <v>0.2706666498742777</v>
-      </c>
-      <c r="AO75">
-        <v>0.2049756690022327</v>
-      </c>
-      <c r="AP75">
-        <v>0.1952427918208501</v>
-      </c>
-      <c r="AQ75">
-        <v>0.2010196488207791</v>
-      </c>
       <c r="AR75">
-        <v>0.1966970941698684</v>
+        <v>0.1528207405410708</v>
       </c>
       <c r="AS75">
-        <v>0.1688962424736391</v>
+        <v>0.1510902214433221</v>
       </c>
       <c r="AT75">
-        <v>0.1478899875467433</v>
+        <v>0.1484205131489515</v>
       </c>
       <c r="AU75">
-        <v>0.08703233684639555</v>
+        <v>0.1499532318853163</v>
       </c>
       <c r="AV75">
-        <v>0.08634197301900458</v>
+        <v>0.1478091965046894</v>
       </c>
       <c r="AW75">
-        <v>0.29</v>
+        <v>0.1536124062338952</v>
       </c>
       <c r="AX75">
-        <v>0.125750128448999</v>
+        <v>0.1539446219575564</v>
       </c>
       <c r="AY75">
-        <v>0.1298443609737205</v>
+        <v>0.1411565065725002</v>
       </c>
       <c r="AZ75">
-        <v>0.3495381990520059</v>
-      </c>
-      <c r="BA75">
-        <v>0.3427795693520892</v>
+        <v>0.1295012375560634</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.2829484666313501</v>
-      </c>
-      <c r="AL76">
-        <v>0.271146274877267</v>
-      </c>
-      <c r="AM76">
-        <v>0.2670376688956259</v>
-      </c>
-      <c r="AN76">
-        <v>0.2706604709299939</v>
-      </c>
-      <c r="AO76">
-        <v>0.202609320934856</v>
-      </c>
-      <c r="AP76">
-        <v>0.1942692212228037</v>
-      </c>
-      <c r="AQ76">
-        <v>0.2002226703210867</v>
-      </c>
-      <c r="AR76">
-        <v>0.1952830519487278</v>
-      </c>
       <c r="AS76">
-        <v>0.1851548642815807</v>
+        <v>0.1511164061194696</v>
       </c>
       <c r="AT76">
-        <v>0.178294594790903</v>
+        <v>0.1486131840040904</v>
       </c>
       <c r="AU76">
-        <v>0.1845454797492078</v>
+        <v>0.1500583857605191</v>
       </c>
       <c r="AV76">
-        <v>0.1857344251559875</v>
+        <v>0.1493449342298065</v>
       </c>
       <c r="AW76">
-        <v>0.232</v>
+        <v>0.1552337385293661</v>
       </c>
       <c r="AX76">
-        <v>0.1310957798170875</v>
+        <v>0.1589044956805326</v>
       </c>
       <c r="AY76">
-        <v>0.1303356798241424</v>
+        <v>0.1515975326728113</v>
       </c>
       <c r="AZ76">
-        <v>0.4205703094340976</v>
-      </c>
-      <c r="BA76">
-        <v>0.3950901243604932</v>
+        <v>0.1374378303699742</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.2010850428943949</v>
-      </c>
-      <c r="AP77">
-        <v>0.1939184451016983</v>
-      </c>
-      <c r="AQ77">
-        <v>0.200022786398812</v>
-      </c>
-      <c r="AR77">
-        <v>0.1942987520287788</v>
-      </c>
-      <c r="AS77">
-        <v>0.1823153724270392</v>
-      </c>
       <c r="AT77">
-        <v>0.1722616160319098</v>
+        <v>0.1487199388934546</v>
       </c>
       <c r="AU77">
-        <v>0.1738701923815234</v>
+        <v>0.1501780606837442</v>
       </c>
       <c r="AV77">
-        <v>0.1739453078766663</v>
+        <v>0.1487125383698368</v>
       </c>
       <c r="AW77">
-        <v>0.23</v>
+        <v>0.1547001920102577</v>
       </c>
       <c r="AX77">
-        <v>0.1373901188520961</v>
+        <v>0.1582418149677781</v>
       </c>
       <c r="AY77">
-        <v>0.1296615697287535</v>
+        <v>0.1486714937655801</v>
       </c>
       <c r="AZ77">
-        <v>0.4358627554389471</v>
-      </c>
-      <c r="BA77">
-        <v>0.3991974873073616</v>
+        <v>0.1425497657888824</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.2022358568108392</v>
-      </c>
-      <c r="AP78">
-        <v>0.1942637155767695</v>
-      </c>
-      <c r="AQ78">
-        <v>0.2002639444546033</v>
-      </c>
-      <c r="AR78">
-        <v>0.1950269920761179</v>
-      </c>
-      <c r="AS78">
-        <v>0.1806819376153989</v>
-      </c>
-      <c r="AT78">
-        <v>0.1695252621402452</v>
-      </c>
       <c r="AU78">
-        <v>0.1610794989694995</v>
+        <v>0.1501016676634214</v>
       </c>
       <c r="AV78">
-        <v>0.1613489143738506</v>
+        <v>0.1487293103554306</v>
       </c>
       <c r="AW78">
-        <v>0.23</v>
+        <v>0.1546538760851018</v>
       </c>
       <c r="AX78">
-        <v>0.1351447789384395</v>
+        <v>0.1576374303605265</v>
       </c>
       <c r="AY78">
-        <v>0.1302853466008287</v>
+        <v>0.1481457243456999</v>
       </c>
       <c r="AZ78">
-        <v>0.4473082918826918</v>
-      </c>
-      <c r="BA78">
-        <v>0.411</v>
+        <v>0.1386328314295313</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.2019714868080694</v>
-      </c>
-      <c r="AP79">
-        <v>0.1941650877259055</v>
-      </c>
-      <c r="AQ79">
-        <v>0.2001866115488536</v>
-      </c>
-      <c r="AR79">
-        <v>0.1948632992736444</v>
-      </c>
-      <c r="AS79">
-        <v>0.1819799730008193</v>
-      </c>
-      <c r="AT79">
-        <v>0.171943851285553</v>
-      </c>
-      <c r="AU79">
-        <v>0.169115032883378</v>
-      </c>
       <c r="AV79">
-        <v>0.1694962657448278</v>
+        <v>0.1488383050910273</v>
       </c>
       <c r="AW79">
-        <v>0.08662634074107235</v>
+        <v>0.1547747174680084</v>
       </c>
       <c r="AX79">
-        <v>0.1017735869731328</v>
+        <v>0.1580483166480743</v>
       </c>
       <c r="AY79">
-        <v>0.1107527966319648</v>
+        <v>0.1489335004028516</v>
       </c>
       <c r="AZ79">
-        <v>-0.06954716558837887</v>
-      </c>
-      <c r="BA79">
-        <v>0.3557500822747528</v>
+        <v>0.139562385506064</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.2018860392077823</v>
-      </c>
-      <c r="AP80">
-        <v>0.1941481017814701</v>
-      </c>
-      <c r="AQ80">
-        <v>0.2001788433648646</v>
-      </c>
-      <c r="AR80">
-        <v>0.1948064355911324</v>
-      </c>
-      <c r="AS80">
-        <v>0.1816623829995385</v>
-      </c>
-      <c r="AT80">
-        <v>0.1712957345004389</v>
-      </c>
-      <c r="AU80">
-        <v>0.167638852037123</v>
-      </c>
-      <c r="AV80">
-        <v>0.1679296056244114</v>
-      </c>
       <c r="AW80">
-        <v>0.1553975111070178</v>
+        <v>0.154725785624053</v>
       </c>
       <c r="AX80">
-        <v>0.118344528072788</v>
+        <v>0.1579646747850861</v>
       </c>
       <c r="AY80">
-        <v>0.1200788274865642</v>
+        <v>0.1486552051003119</v>
       </c>
       <c r="AZ80">
-        <v>0.1766258307327535</v>
-      </c>
-      <c r="BA80">
-        <v>0.353772834911311</v>
+        <v>0.1398422254299032</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.181575206322053</v>
-      </c>
-      <c r="AT81">
-        <v>0.171158277390192</v>
-      </c>
-      <c r="AU81">
-        <v>0.1668683665267265</v>
-      </c>
-      <c r="AV81">
-        <v>0.1671824446676475</v>
-      </c>
-      <c r="AW81">
-        <v>0.1492233835741558</v>
-      </c>
       <c r="AX81">
-        <v>0.1166944085996461</v>
+        <v>0.1579283010405179</v>
       </c>
       <c r="AY81">
-        <v>0.1192924108110033</v>
+        <v>0.1486429111888893</v>
       </c>
       <c r="AZ81">
-        <v>0.1555472706550468</v>
-      </c>
-      <c r="BA81">
-        <v>0.3196762671417588</v>
+        <v>0.1395361683871606</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.1816749572723436</v>
-      </c>
-      <c r="AT82">
-        <v>0.1713434748314803</v>
-      </c>
-      <c r="AU82">
-        <v>0.1675050435975423</v>
-      </c>
-      <c r="AV82">
-        <v>0.1678245468280564</v>
-      </c>
-      <c r="AW82">
-        <v>0.1393236990905508</v>
-      </c>
-      <c r="AX82">
-        <v>0.1143316242183899</v>
-      </c>
       <c r="AY82">
-        <v>0.1178950129547631</v>
+        <v>0.1486998899998834</v>
       </c>
       <c r="AZ82">
-        <v>0.1193809511548763</v>
-      </c>
-      <c r="BA82">
-        <v>0.2871413350329135</v>
+        <v>0.139630935673074</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.1816435130080435</v>
-      </c>
-      <c r="AT83">
-        <v>0.1712805412773468</v>
-      </c>
-      <c r="AU83">
-        <v>0.1673435709738079</v>
-      </c>
-      <c r="AV83">
-        <v>0.1676561059257317</v>
-      </c>
-      <c r="AW83">
-        <v>0.1452268704756487</v>
-      </c>
-      <c r="AX83">
-        <v>0.1157893418966601</v>
-      </c>
-      <c r="AY83">
-        <v>0.1187206240159271</v>
-      </c>
       <c r="AZ83">
-        <v>0.1407210996920676</v>
-      </c>
-      <c r="BA83">
-        <v>0.01346608825442257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.181640161231524</v>
-      </c>
-      <c r="AT84">
-        <v>0.1712763605402265</v>
-      </c>
-      <c r="AU84">
-        <v>0.1673036805228464</v>
-      </c>
-      <c r="AV84">
-        <v>0.1676186009147736</v>
-      </c>
-      <c r="AW84">
-        <v>0.1442467145210662</v>
-      </c>
-      <c r="AX84">
-        <v>0.1155349146231273</v>
-      </c>
-      <c r="AY84">
-        <v>0.1185877642295102</v>
-      </c>
-      <c r="AZ84">
-        <v>0.1372693255993332</v>
-      </c>
-      <c r="BA84">
-        <v>0.1518593537930148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.1436128826370371</v>
-      </c>
-      <c r="AX85">
-        <v>0.1153799211407471</v>
-      </c>
-      <c r="AY85">
-        <v>0.1184946356574742</v>
-      </c>
-      <c r="AZ85">
-        <v>0.1349146632233911</v>
-      </c>
-      <c r="BA85">
-        <v>0.1370344530220163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.1441002120749305</v>
-      </c>
-      <c r="AX86">
-        <v>0.1155034294293778</v>
-      </c>
-      <c r="AY86">
-        <v>0.1185649927015158</v>
-      </c>
-      <c r="AZ86">
-        <v>0.1366950875182887</v>
-      </c>
-      <c r="BA86">
-        <v>0.1178851007463832</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.1439849933410757</v>
-      </c>
-      <c r="AX87">
-        <v>0.1154732506628187</v>
-      </c>
-      <c r="AY87">
-        <v>0.1185487232451293</v>
-      </c>
-      <c r="AZ87">
-        <v>0.1362824768462514</v>
-      </c>
-      <c r="BA87">
-        <v>0.1299542988701381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.143949122047639</v>
-      </c>
-      <c r="AX88">
-        <v>0.1154642891545627</v>
-      </c>
-      <c r="AY88">
-        <v>0.1185431793036828</v>
-      </c>
-      <c r="AZ88">
-        <v>0.136145903012015</v>
-      </c>
-      <c r="BA88">
-        <v>0.1277645074884088</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.1265277900538472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.1275415450108138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.1272869392950452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.1272172021920202</v>
+        <v>0.1396422017309154</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_GDP_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_GDP_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>-0.2369044799778764</v>
       </c>
       <c r="AG64">
-        <v>6.640000000000001</v>
+        <v>-9.570125536991497</v>
       </c>
       <c r="AH64">
         <v>8.480305474188015</v>
@@ -9166,10 +9166,10 @@
         <v>-0.002484099245193831</v>
       </c>
       <c r="AG65">
-        <v>-1.907617640529472</v>
+        <v>-7.98477122322231</v>
       </c>
       <c r="AH65">
-        <v>-0.4000000000000057</v>
+        <v>-4.305915413260612</v>
       </c>
       <c r="AI65">
         <v>0.34062844669036</v>
@@ -9255,13 +9255,13 @@
         <v>0.08069272220603629</v>
       </c>
       <c r="AG66">
-        <v>0.9549639710417731</v>
+        <v>-6.402478161321477</v>
       </c>
       <c r="AH66">
-        <v>-0.7088267050106625</v>
+        <v>2.877221167168091</v>
       </c>
       <c r="AI66">
-        <v>-0.7094799999999992</v>
+        <v>-1.332693819518934</v>
       </c>
       <c r="AJ66">
         <v>-1.80694255667963</v>
@@ -9341,16 +9341,16 @@
         <v>0.109916196100461</v>
       </c>
       <c r="AG67">
-        <v>-0.1993670239089995</v>
+        <v>-5.102550867461907</v>
       </c>
       <c r="AH67">
-        <v>0.5146697872763625</v>
+        <v>-1.491328889764003</v>
       </c>
       <c r="AI67">
-        <v>0.5680717620532238</v>
+        <v>0.55678406571284</v>
       </c>
       <c r="AJ67">
-        <v>1.310000000000016</v>
+        <v>0.8725084791520108</v>
       </c>
       <c r="AK67">
         <v>1.633091849519602</v>
@@ -9424,19 +9424,19 @@
         <v>0.1201608170081339</v>
       </c>
       <c r="AG68">
-        <v>0.2289824149471227</v>
+        <v>-4.087964122208838</v>
       </c>
       <c r="AH68">
-        <v>0.2100227553084454</v>
+        <v>1.087091326550762</v>
       </c>
       <c r="AI68">
-        <v>0.3532220005871776</v>
+        <v>0.3702560343014643</v>
       </c>
       <c r="AJ68">
-        <v>0.473412057081649</v>
+        <v>0.5493232428879533</v>
       </c>
       <c r="AK68">
-        <v>1.52000000000001</v>
+        <v>0.4160762138706632</v>
       </c>
       <c r="AL68">
         <v>1.694275412034003</v>
@@ -9504,22 +9504,22 @@
         <v>0.1237503703209239</v>
       </c>
       <c r="AG69">
-        <v>0.064177753936555</v>
+        <v>-3.308470420507569</v>
       </c>
       <c r="AH69">
-        <v>0.1391215756246568</v>
+        <v>-0.4517906028093093</v>
       </c>
       <c r="AI69">
-        <v>0.1904899081118261</v>
+        <v>0.08067311307143032</v>
       </c>
       <c r="AJ69">
-        <v>-0.0632957100623851</v>
+        <v>0.01937411262103975</v>
       </c>
       <c r="AK69">
-        <v>-0.5824289441666861</v>
+        <v>-0.1433787490202071</v>
       </c>
       <c r="AL69">
-        <v>-0.539999999999992</v>
+        <v>-0.7451902454542771</v>
       </c>
       <c r="AM69">
         <v>-0.3471888372093019</v>
@@ -9581,25 +9581,25 @@
         <v>0.1250079482883281</v>
       </c>
       <c r="AG70">
-        <v>0.1265828447344913</v>
+        <v>-2.712621759467706</v>
       </c>
       <c r="AH70">
-        <v>0.1980592531462751</v>
+        <v>0.4628464771107357</v>
       </c>
       <c r="AI70">
-        <v>0.2808262991135645</v>
+        <v>0.1883872680816301</v>
       </c>
       <c r="AJ70">
-        <v>0.3760986904956268</v>
+        <v>0.2699050477208192</v>
       </c>
       <c r="AK70">
-        <v>0.2850552411422753</v>
+        <v>0.4250680614031956</v>
       </c>
       <c r="AL70">
-        <v>0.2306768559177155</v>
+        <v>0.3173545147394017</v>
       </c>
       <c r="AM70">
-        <v>0.4652855479103435</v>
+        <v>0.190765403126242</v>
       </c>
       <c r="AN70">
         <v>0.2354020960014367</v>
@@ -9655,28 +9655,28 @@
         <v>0.125448521450656</v>
       </c>
       <c r="AG71">
-        <v>0.1027868759360605</v>
+        <v>-2.257903313723332</v>
       </c>
       <c r="AH71">
-        <v>0.1905547254605784</v>
+        <v>-0.08161475176581826</v>
       </c>
       <c r="AI71">
-        <v>0.28161592469943</v>
+        <v>0.2124407313900014</v>
       </c>
       <c r="AJ71">
-        <v>0.3539306385085794</v>
+        <v>0.3135111777235672</v>
       </c>
       <c r="AK71">
-        <v>0.6043938713767105</v>
+        <v>0.3608566996967156</v>
       </c>
       <c r="AL71">
-        <v>0.6191964223165023</v>
+        <v>0.6588773650866746</v>
       </c>
       <c r="AM71">
-        <v>0.4670790993637945</v>
+        <v>0.5809712706761625</v>
       </c>
       <c r="AN71">
-        <v>0.38</v>
+        <v>0.5528483950381743</v>
       </c>
       <c r="AO71">
         <v>0.1397248471449046</v>
@@ -9726,31 +9726,31 @@
         <v>0.1256028685814029</v>
       </c>
       <c r="AG72">
-        <v>0.1118328295395164</v>
+        <v>-1.911074935515134</v>
       </c>
       <c r="AH72">
-        <v>0.1851221365760503</v>
+        <v>0.2423018275082264</v>
       </c>
       <c r="AI72">
-        <v>0.2650485054956099</v>
+        <v>0.1870210365761288</v>
       </c>
       <c r="AJ72">
-        <v>0.241116916831366</v>
+        <v>0.2397459764909977</v>
       </c>
       <c r="AK72">
-        <v>0.2046630556268408</v>
+        <v>0.2236905857455139</v>
       </c>
       <c r="AL72">
-        <v>0.2278811154888818</v>
+        <v>0.1933925635160192</v>
       </c>
       <c r="AM72">
-        <v>0.2249415347999282</v>
+        <v>0.2701870897505477</v>
       </c>
       <c r="AN72">
-        <v>0.2743920533817323</v>
+        <v>0.2552842012442382</v>
       </c>
       <c r="AO72">
-        <v>0.04</v>
+        <v>0.2113756838294314</v>
       </c>
       <c r="AP72">
         <v>0.4001468552058896</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.1083894092097913</v>
+        <v>-1.646584597109457</v>
       </c>
       <c r="AH73">
-        <v>0.1876108788571712</v>
+        <v>0.049552243916099</v>
       </c>
       <c r="AI73">
-        <v>0.270151861518971</v>
+        <v>0.1892550569499432</v>
       </c>
       <c r="AJ73">
-        <v>0.291010848589985</v>
+        <v>0.2535914254120462</v>
       </c>
       <c r="AK73">
-        <v>0.2621825847300728</v>
+        <v>0.2961256840523508</v>
       </c>
       <c r="AL73">
-        <v>0.2614964550371163</v>
+        <v>0.2703016981548741</v>
       </c>
       <c r="AM73">
-        <v>0.318761976852702</v>
+        <v>0.2747398370642703</v>
       </c>
       <c r="AN73">
-        <v>0.2721024059030258</v>
+        <v>0.2763330492154584</v>
       </c>
       <c r="AO73">
-        <v>0.4236637901383805</v>
+        <v>0.3808980460712815</v>
       </c>
       <c r="AP73">
-        <v>-0.29</v>
+        <v>0.2933119039830148</v>
       </c>
       <c r="AQ73">
         <v>-0.4353111306276531</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.1096994022810173</v>
-      </c>
       <c r="AH74">
-        <v>0.187606121424127</v>
+        <v>0.1642404088639408</v>
       </c>
       <c r="AI74">
-        <v>0.2715284702785993</v>
+        <v>0.1932216512642865</v>
       </c>
       <c r="AJ74">
-        <v>0.3028263635112415</v>
+        <v>0.2665578972819784</v>
       </c>
       <c r="AK74">
-        <v>0.3653969394158951</v>
+        <v>0.3067734840347726</v>
       </c>
       <c r="AL74">
-        <v>0.3693998990581656</v>
+        <v>0.3850223149001377</v>
       </c>
       <c r="AM74">
-        <v>0.3541578170564038</v>
+        <v>0.3652154503255503</v>
       </c>
       <c r="AN74">
-        <v>0.3051267366515489</v>
+        <v>0.3569989161073277</v>
       </c>
       <c r="AO74">
-        <v>0.2966840445487854</v>
+        <v>0.2922244778195421</v>
       </c>
       <c r="AP74">
-        <v>0.4532959515104296</v>
+        <v>0.2458945994320571</v>
       </c>
       <c r="AQ74">
-        <v>-0.2078779574152918</v>
+        <v>0.4896889087140315</v>
       </c>
       <c r="AR74">
         <v>-0.3352883615304449</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.1872889166452627</v>
-      </c>
       <c r="AI75">
-        <v>0.270170759387836</v>
+        <v>0.1918035567762151</v>
       </c>
       <c r="AJ75">
-        <v>0.2844555065979119</v>
+        <v>0.2590187158998702</v>
       </c>
       <c r="AK75">
-        <v>0.3064324053632201</v>
+        <v>0.2818707078597446</v>
       </c>
       <c r="AL75">
-        <v>0.3165657533602279</v>
+        <v>0.3158891184131499</v>
       </c>
       <c r="AM75">
-        <v>0.3124850474775572</v>
+        <v>0.3288239639698436</v>
       </c>
       <c r="AN75">
-        <v>0.292786518470404</v>
+        <v>0.319308605978507</v>
       </c>
       <c r="AO75">
-        <v>0.2307941329199408</v>
+        <v>0.2763879975136415</v>
       </c>
       <c r="AP75">
-        <v>0.3631140104646867</v>
+        <v>0.2981649354490349</v>
       </c>
       <c r="AQ75">
-        <v>0.6423802920766603</v>
+        <v>0.3932671002208698</v>
       </c>
       <c r="AR75">
-        <v>0.1206478331785803</v>
+        <v>0.7204349792925862</v>
       </c>
       <c r="AS75">
         <v>0.01856969850348378</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.2703520156278059</v>
-      </c>
       <c r="AJ76">
-        <v>0.2883179751635563</v>
+        <v>0.2584140554996509</v>
       </c>
       <c r="AK76">
-        <v>0.2972349269178081</v>
+        <v>0.2886457088965625</v>
       </c>
       <c r="AL76">
-        <v>0.3039422744362542</v>
+        <v>0.3073751358382569</v>
       </c>
       <c r="AM76">
-        <v>0.3182052272834395</v>
+        <v>0.3160653972162043</v>
       </c>
       <c r="AN76">
-        <v>0.2876136220472416</v>
+        <v>0.3098931121744546</v>
       </c>
       <c r="AO76">
-        <v>0.2969505446940093</v>
+        <v>0.3093130073684997</v>
       </c>
       <c r="AP76">
-        <v>0.163437461374561</v>
+        <v>0.2912269665992515</v>
       </c>
       <c r="AQ76">
-        <v>0.2116150992080441</v>
+        <v>0.1383933834999895</v>
       </c>
       <c r="AR76">
-        <v>0.4405335770846683</v>
+        <v>0.2125447459901388</v>
       </c>
       <c r="AS76">
-        <v>-0.18</v>
+        <v>0.4115560663155731</v>
       </c>
       <c r="AT76">
         <v>-0.1296233709318813</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.291895719916106</v>
-      </c>
       <c r="AK77">
-        <v>0.3194562604030572</v>
+        <v>0.2930926278216521</v>
       </c>
       <c r="AL77">
-        <v>0.3252594758072003</v>
+        <v>0.3322638738943333</v>
       </c>
       <c r="AM77">
-        <v>0.3283599268096654</v>
+        <v>0.3318074273293765</v>
       </c>
       <c r="AN77">
-        <v>0.2934089190592719</v>
+        <v>0.3248140439561942</v>
       </c>
       <c r="AO77">
-        <v>0.2900407126934151</v>
+        <v>0.3010335810595026</v>
       </c>
       <c r="AP77">
-        <v>0.2756648163334098</v>
+        <v>0.2780414647838162</v>
       </c>
       <c r="AQ77">
-        <v>0.1171403976960974</v>
+        <v>0.275742417744972</v>
       </c>
       <c r="AR77">
-        <v>0.1600860902143776</v>
+        <v>0.08736985811965922</v>
       </c>
       <c r="AS77">
-        <v>0.4364296930042493</v>
+        <v>0.2096866820997904</v>
       </c>
       <c r="AT77">
-        <v>0.044</v>
+        <v>0.3849493146645205</v>
       </c>
       <c r="AU77">
         <v>-0.2870570324401456</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.3135627219053831</v>
-      </c>
       <c r="AL78">
-        <v>0.3207844778434896</v>
+        <v>0.3251154092657066</v>
       </c>
       <c r="AM78">
-        <v>0.3227031232928671</v>
+        <v>0.3294973683055495</v>
       </c>
       <c r="AN78">
-        <v>0.292694508166379</v>
+        <v>0.3218167916498507</v>
       </c>
       <c r="AO78">
-        <v>0.272520579568605</v>
+        <v>0.2944160512133392</v>
       </c>
       <c r="AP78">
-        <v>0.2925362979364811</v>
+        <v>0.2855902311276303</v>
       </c>
       <c r="AQ78">
-        <v>0.2963406661305071</v>
+        <v>0.299645840884856</v>
       </c>
       <c r="AR78">
-        <v>0.1760436507640619</v>
+        <v>0.3027036189876038</v>
       </c>
       <c r="AS78">
-        <v>0.2397205819920985</v>
+        <v>0.169428921763621</v>
       </c>
       <c r="AT78">
-        <v>0.3922874461697745</v>
+        <v>0.2534776030369639</v>
       </c>
       <c r="AU78">
-        <v>-0.08251004046350374</v>
+        <v>0.4900071746274954</v>
       </c>
       <c r="AV78">
         <v>0.2135990538361767</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.3159459308661613</v>
-      </c>
       <c r="AM79">
-        <v>0.321889784558187</v>
+        <v>0.3257198917194199</v>
       </c>
       <c r="AN79">
-        <v>0.2912138978209725</v>
+        <v>0.3185278873004948</v>
       </c>
       <c r="AO79">
-        <v>0.2818471633842018</v>
+        <v>0.299525434143966</v>
       </c>
       <c r="AP79">
-        <v>0.2496494367383366</v>
+        <v>0.2865327506028686</v>
       </c>
       <c r="AQ79">
-        <v>0.251677738465217</v>
+        <v>0.2458184360307911</v>
       </c>
       <c r="AR79">
-        <v>0.2589226676181128</v>
+        <v>0.2524312545233538</v>
       </c>
       <c r="AS79">
-        <v>0.124013522909116</v>
+        <v>0.2510181270538394</v>
       </c>
       <c r="AT79">
-        <v>0.1883892933393865</v>
+        <v>0.142499281321176</v>
       </c>
       <c r="AU79">
-        <v>0.477393248615564</v>
+        <v>0.2502628768115527</v>
       </c>
       <c r="AV79">
-        <v>0.2582525219575302</v>
+        <v>0.4285835461769015</v>
       </c>
       <c r="AW79">
         <v>-0.06675723343442996</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.3238877192684385</v>
-      </c>
       <c r="AN80">
-        <v>0.2920156670697421</v>
+        <v>0.3207033714035251</v>
       </c>
       <c r="AO80">
-        <v>0.283406177568976</v>
+        <v>0.2994910067213329</v>
       </c>
       <c r="AP80">
-        <v>0.2621810057787363</v>
+        <v>0.2838292227550061</v>
       </c>
       <c r="AQ80">
-        <v>0.2123941329368427</v>
+        <v>0.2606986773413007</v>
       </c>
       <c r="AR80">
-        <v>0.2189050081113803</v>
+        <v>0.2045164306835698</v>
       </c>
       <c r="AS80">
-        <v>0.236444937524263</v>
+        <v>0.2293702096191826</v>
       </c>
       <c r="AT80">
-        <v>0.1620495597382398</v>
+        <v>0.2322650370155351</v>
       </c>
       <c r="AU80">
-        <v>0.1751217072930074</v>
+        <v>0.1007426028033042</v>
       </c>
       <c r="AV80">
-        <v>0.1776963595792893</v>
+        <v>0.1075312644255177</v>
       </c>
       <c r="AW80">
-        <v>-0.04717552522494373</v>
+        <v>0.3040446370248433</v>
       </c>
       <c r="AX80">
         <v>0.1052088781249552</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.2921494875255797</v>
-      </c>
       <c r="AO81">
-        <v>0.2798952071817763</v>
+        <v>0.2979688809254881</v>
       </c>
       <c r="AP81">
-        <v>0.2706400822930002</v>
+        <v>0.284651362723755</v>
       </c>
       <c r="AQ81">
-        <v>0.2433589095918262</v>
+        <v>0.2716541856680763</v>
       </c>
       <c r="AR81">
-        <v>0.2092858973047147</v>
+        <v>0.2407433500137247</v>
       </c>
       <c r="AS81">
-        <v>0.2262189730428047</v>
+        <v>0.212438581376836</v>
       </c>
       <c r="AT81">
-        <v>0.2392486968175302</v>
+        <v>0.2301131111349876</v>
       </c>
       <c r="AU81">
-        <v>0.1223760529810168</v>
+        <v>0.2416520915370856</v>
       </c>
       <c r="AV81">
-        <v>0.1974737389196988</v>
+        <v>0.1743704826735244</v>
       </c>
       <c r="AW81">
-        <v>0.3855247152864391</v>
+        <v>0.2419174749917829</v>
       </c>
       <c r="AX81">
-        <v>0.2142297805489477</v>
+        <v>0.3874858159480963</v>
       </c>
       <c r="AY81">
         <v>-0.2005382402049349</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.2808582837069898</v>
-      </c>
       <c r="AP82">
-        <v>0.263103975485393</v>
+        <v>0.2851429003759354</v>
       </c>
       <c r="AQ82">
-        <v>0.2430776385930256</v>
+        <v>0.2623243214239751</v>
       </c>
       <c r="AR82">
-        <v>0.2261242565922426</v>
+        <v>0.2408935011526114</v>
       </c>
       <c r="AS82">
-        <v>0.1942625371437447</v>
+        <v>0.226525405054821</v>
       </c>
       <c r="AT82">
-        <v>0.2150468381628244</v>
+        <v>0.2019249111949246</v>
       </c>
       <c r="AU82">
-        <v>0.2420139546123445</v>
+        <v>0.2302277293455334</v>
       </c>
       <c r="AV82">
-        <v>0.215020562775447</v>
+        <v>0.2495803861689737</v>
       </c>
       <c r="AW82">
-        <v>0.1961481283023531</v>
+        <v>0.1493422919793448</v>
       </c>
       <c r="AX82">
-        <v>0.2268573535663984</v>
+        <v>0.1431599325940648</v>
       </c>
       <c r="AY82">
-        <v>0.2394371574146135</v>
+        <v>0.3932212715797078</v>
       </c>
       <c r="AZ82">
         <v>0.4116519254275204</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.2635515013339091</v>
-      </c>
       <c r="AQ83">
-        <v>0.2331665053491909</v>
+        <v>0.2627294916652599</v>
       </c>
       <c r="AR83">
-        <v>0.2221030696990887</v>
+        <v>0.2292191111373449</v>
       </c>
       <c r="AS83">
-        <v>0.2110821808238798</v>
+        <v>0.2259795477066684</v>
       </c>
       <c r="AT83">
-        <v>0.200307723395436</v>
+        <v>0.2145965795250452</v>
       </c>
       <c r="AU83">
-        <v>0.2084956369318443</v>
+        <v>0.1895223765867097</v>
       </c>
       <c r="AV83">
-        <v>0.2012152186322952</v>
+        <v>0.1961166468484083</v>
       </c>
       <c r="AW83">
-        <v>0.1376162558148993</v>
+        <v>0.2084835250926371</v>
       </c>
       <c r="AX83">
-        <v>0.1866975623392698</v>
+        <v>0.1562365910328292</v>
       </c>
       <c r="AY83">
-        <v>0.3204785423433725</v>
+        <v>0.2396958774833234</v>
       </c>
       <c r="AZ83">
-        <v>0.04717883418304325</v>
+        <v>0.2508140578265698</v>
       </c>
       <c r="BA83">
         <v>-0.2766843069119602</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.2374201988489076</v>
-      </c>
       <c r="AR84">
-        <v>0.2184174879217204</v>
+        <v>0.234071676387075</v>
       </c>
       <c r="AS84">
-        <v>0.2142790322704299</v>
+        <v>0.2217057118100479</v>
       </c>
       <c r="AT84">
-        <v>0.2143946325791557</v>
+        <v>0.2183525016482168</v>
       </c>
       <c r="AU84">
-        <v>0.1841079925523046</v>
+        <v>0.2104781042724213</v>
       </c>
       <c r="AV84">
-        <v>0.2014195506581734</v>
+        <v>0.1945348317815014</v>
       </c>
       <c r="AW84">
-        <v>0.2230744876067118</v>
+        <v>0.2131115589238095</v>
       </c>
       <c r="AX84">
-        <v>0.1996482819381198</v>
+        <v>0.2287696841965961</v>
       </c>
       <c r="AY84">
-        <v>0.1454372651293702</v>
+        <v>0.1156524533110163</v>
       </c>
       <c r="AZ84">
-        <v>0.2034945379721231</v>
+        <v>0.1235621101260426</v>
       </c>
       <c r="BA84">
-        <v>0.0959495356205764</v>
+        <v>0.3647997790433188</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.2212550875919991</v>
-      </c>
       <c r="AS85">
-        <v>0.2074987009157068</v>
+        <v>0.2236886077434935</v>
       </c>
       <c r="AT85">
-        <v>0.2131950733197988</v>
+        <v>0.2126488404141065</v>
       </c>
       <c r="AU85">
-        <v>0.2052011678139695</v>
+        <v>0.2147493916482734</v>
       </c>
       <c r="AV85">
-        <v>0.2057769252632258</v>
+        <v>0.2124517196380902</v>
       </c>
       <c r="AW85">
-        <v>0.2056698627635323</v>
+        <v>0.192187467306315</v>
       </c>
       <c r="AX85">
-        <v>0.2069977563391187</v>
+        <v>0.1939365621811</v>
       </c>
       <c r="AY85">
-        <v>0.193993213716298</v>
+        <v>0.2168791744172771</v>
       </c>
       <c r="AZ85">
-        <v>0.2531888831111863</v>
+        <v>0.2291626859509139</v>
       </c>
       <c r="BA85">
-        <v>0.3825123747100848</v>
+        <v>0.2775501009490285</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.2093355632690467</v>
-      </c>
       <c r="AT86">
-        <v>0.2091417091900677</v>
+        <v>0.213854006431789</v>
       </c>
       <c r="AU86">
-        <v>0.204151889644518</v>
+        <v>0.2061638517108028</v>
       </c>
       <c r="AV86">
-        <v>0.2038638549654183</v>
+        <v>0.2053618041147066</v>
       </c>
       <c r="AW86">
-        <v>0.1856478132529153</v>
+        <v>0.1995682156645215</v>
       </c>
       <c r="AX86">
-        <v>0.1997533765434777</v>
+        <v>0.185484738319759</v>
       </c>
       <c r="AY86">
-        <v>0.2292672335617857</v>
+        <v>0.213587221175658</v>
       </c>
       <c r="AZ86">
-        <v>0.1822374909949638</v>
+        <v>0.2248879975444517</v>
       </c>
       <c r="BA86">
-        <v>0.1426655317965382</v>
+        <v>0.1107837581406829</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.2112487748547566</v>
-      </c>
       <c r="AU87">
-        <v>0.1978002121614839</v>
+        <v>0.2084241523513126</v>
       </c>
       <c r="AV87">
-        <v>0.2032722370599399</v>
+        <v>0.2025897915294383</v>
       </c>
       <c r="AW87">
-        <v>0.1996980297663936</v>
+        <v>0.2031505038625523</v>
       </c>
       <c r="AX87">
-        <v>0.2004697542889305</v>
+        <v>0.2001856518598844</v>
       </c>
       <c r="AY87">
-        <v>0.1987507622352847</v>
+        <v>0.182775940382354</v>
       </c>
       <c r="AZ87">
-        <v>0.1965692373732457</v>
+        <v>0.1929454381477647</v>
       </c>
       <c r="BA87">
-        <v>0.1535544232704057</v>
+        <v>0.2093403799538062</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.2008197817674025</v>
-      </c>
       <c r="AV88">
-        <v>0.2041388772403115</v>
+        <v>0.2060526587548695</v>
       </c>
       <c r="AW88">
-        <v>0.2001690566009199</v>
+        <v>0.1992662259000408</v>
       </c>
       <c r="AX88">
-        <v>0.2024805337326393</v>
+        <v>0.1966727616016208</v>
       </c>
       <c r="AY88">
-        <v>0.2004599736235524</v>
+        <v>0.1968359187184157</v>
       </c>
       <c r="AZ88">
-        <v>0.2130883751635793</v>
+        <v>0.2079117156007012</v>
       </c>
       <c r="BA88">
-        <v>0.2250240089805111</v>
+        <v>0.2204669886860973</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.2039619123124517</v>
-      </c>
       <c r="AW89">
-        <v>0.1954670344304173</v>
+        <v>0.199763195283878</v>
       </c>
       <c r="AX89">
-        <v>0.2014013660769274</v>
+        <v>0.1934606415500474</v>
       </c>
       <c r="AY89">
-        <v>0.2094830583225734</v>
+        <v>0.2006993482269051</v>
       </c>
       <c r="AZ89">
-        <v>0.2014963195756785</v>
+        <v>0.2117524509759689</v>
       </c>
       <c r="BA89">
-        <v>0.1912349047376973</v>
+        <v>0.1844255275151706</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.1973057885718955</v>
-      </c>
       <c r="AX90">
-        <v>0.2012155403758317</v>
+        <v>0.1959405410361529</v>
       </c>
       <c r="AY90">
-        <v>0.2050992540337523</v>
+        <v>0.1945950062690663</v>
       </c>
       <c r="AZ90">
-        <v>0.2011606124994889</v>
+        <v>0.2053322503073499</v>
       </c>
       <c r="BA90">
-        <v>0.1829026940617007</v>
+        <v>0.1961987297381253</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.2016387958140811</v>
-      </c>
       <c r="AY91">
-        <v>0.2040808927543471</v>
+        <v>0.1959440901081712</v>
       </c>
       <c r="AZ91">
-        <v>0.2049979314635131</v>
+        <v>0.206837701351255</v>
       </c>
       <c r="BA91">
-        <v>0.1971587986702939</v>
+        <v>0.2026499097215609</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.2059146540336619</v>
-      </c>
       <c r="AZ92">
-        <v>0.2034732132262527</v>
+        <v>0.2082494142434273</v>
       </c>
       <c r="BA92">
-        <v>0.1937513150819221</v>
+        <v>0.1961689520422347</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.2028985439276699</v>
-      </c>
       <c r="BA93">
-        <v>0.1906748490578416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.1930616490675656</v>
+        <v>0.1968719308882613</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_GDP_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_GDP_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>0.1369474440744227</v>
       </c>
+      <c r="BB2">
+        <v>0.1369474440744227</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>1.366270496737897</v>
       </c>
+      <c r="BB3">
+        <v>1.366270496737897</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>-0.6985480789094254</v>
       </c>
+      <c r="BB4">
+        <v>-0.6985480789094254</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>-0.4148631161428114</v>
       </c>
+      <c r="BB5">
+        <v>-0.4148631161428114</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-2.200693209579313</v>
       </c>
+      <c r="BB6">
+        <v>-2.200693209579313</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>-4.008176425042492</v>
       </c>
+      <c r="BB7">
+        <v>-4.008176425042492</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>0.3143994836296855</v>
       </c>
+      <c r="BB8">
+        <v>0.3143994836296855</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>0.8129351329973105</v>
       </c>
+      <c r="BB9">
+        <v>0.8129351329973105</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>0.7286484790473651</v>
       </c>
+      <c r="BB10">
+        <v>0.7286484790473651</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>0.662286234074088</v>
       </c>
+      <c r="BB11">
+        <v>0.662286234074088</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>2.210734389673945</v>
       </c>
+      <c r="BB12">
+        <v>2.210734389673945</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>0.702250570321695</v>
       </c>
+      <c r="BB13">
+        <v>0.702250570321695</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>0.6043683783303493</v>
       </c>
+      <c r="BB14">
+        <v>0.6043683783303493</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>1.531899235856926</v>
       </c>
+      <c r="BB15">
+        <v>1.531899235856926</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>0.09102045989541807</v>
       </c>
+      <c r="BB16">
+        <v>0.09102045989541807</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>0.4274346081797518</v>
       </c>
+      <c r="BB17">
+        <v>0.4274346081797518</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>0.09961124419930911</v>
       </c>
+      <c r="BB18">
+        <v>0.09961124419930911</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>0.3110551286058296</v>
       </c>
+      <c r="BB19">
+        <v>0.3110551286058296</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>0.1249967678526218</v>
       </c>
+      <c r="BB20">
+        <v>0.1249967678526218</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>0.08642692979871924</v>
       </c>
+      <c r="BB21">
+        <v>0.08642692979871924</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>-0.4125838437329037</v>
       </c>
+      <c r="BB22">
+        <v>-0.4125838437329037</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>-0.404671332649869</v>
       </c>
+      <c r="BB23">
+        <v>-0.404671332649869</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>0.793265767125348</v>
       </c>
+      <c r="BB24">
+        <v>0.793265767125348</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>0.2975365817668774</v>
       </c>
+      <c r="BB25">
+        <v>0.2975365817668774</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>0.4497576285229741</v>
       </c>
+      <c r="BB26">
+        <v>0.4497576285229741</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>0.715037077548871</v>
       </c>
+      <c r="BB27">
+        <v>0.715037077548871</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>-0.05661231354093843</v>
       </c>
+      <c r="BB28">
+        <v>-0.05661231354093843</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>0.1888053351092367</v>
       </c>
+      <c r="BB29">
+        <v>0.1888053351092367</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>0.6124584237519315</v>
       </c>
+      <c r="BB30">
+        <v>0.6124584237519315</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>0.170162512332567</v>
       </c>
+      <c r="BB31">
+        <v>0.170162512332567</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>0.5212263459736306</v>
       </c>
+      <c r="BB32">
+        <v>0.5212263459736306</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>0.2407365673923465</v>
       </c>
+      <c r="BB33">
+        <v>0.2407365673923465</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>0.3602440716739608</v>
       </c>
+      <c r="BB34">
+        <v>0.3602440716739608</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>0.7156188677996056</v>
       </c>
+      <c r="BB35">
+        <v>0.7156188677996056</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0.4660496629244335</v>
       </c>
+      <c r="BB36">
+        <v>0.4660496629244335</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>0.1637213432474738</v>
       </c>
+      <c r="BB37">
+        <v>0.1637213432474738</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>0.4177287092911968</v>
       </c>
+      <c r="BB38">
+        <v>0.4177287092911968</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>0.8997744569043959</v>
       </c>
+      <c r="BB39">
+        <v>0.8997744569043959</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>0.633132069676634</v>
       </c>
+      <c r="BB40">
+        <v>0.633132069676634</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>0.735487593389081</v>
       </c>
+      <c r="BB41">
+        <v>0.735487593389081</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>0.6069719124519395</v>
       </c>
+      <c r="BB42">
+        <v>0.6069719124519395</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>0.1320325676681762</v>
       </c>
+      <c r="BB43">
+        <v>0.1320325676681762</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>0.3861390137996494</v>
       </c>
+      <c r="BB44">
+        <v>0.3861390137996494</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>-0.1032042178152466</v>
       </c>
+      <c r="BB45">
+        <v>-0.1032042178152466</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>0.2066105200339621</v>
       </c>
+      <c r="BB46">
+        <v>0.2066105200339621</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>0.5</v>
       </c>
+      <c r="BB47">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>-0.2</v>
       </c>
+      <c r="BB48">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>0.3</v>
       </c>
+      <c r="BB49">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>-0.1</v>
       </c>
+      <c r="BB50">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>-1.995361287679273</v>
       </c>
+      <c r="BB51">
+        <v>-1.995361287679273</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-9.697717272052344</v>
       </c>
+      <c r="BB52">
+        <v>-9.697717272052344</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>8.701161067295743</v>
       </c>
+      <c r="BB53">
+        <v>8.701161067295743</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>0.5342924547835821</v>
       </c>
+      <c r="BB54">
+        <v>0.5342924547835821</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>-1.684226516424943</v>
       </c>
+      <c r="BB55">
+        <v>-1.684226516424943</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>2.173700732922356</v>
       </c>
+      <c r="BB56">
+        <v>2.173700732922356</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>1.669530332166502</v>
       </c>
+      <c r="BB57">
+        <v>1.669530332166502</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>-0.3471888372093019</v>
       </c>
+      <c r="BB58">
+        <v>-0.3471888372093019</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>1.023580707979747</v>
       </c>
+      <c r="BB59">
+        <v>1.023580707979747</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>-0.1208922437305517</v>
       </c>
+      <c r="BB60">
+        <v>-0.1208922437305517</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>0.4746827657805142</v>
       </c>
+      <c r="BB61">
+        <v>0.4746827657805142</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>-0.5372032863913034</v>
       </c>
+      <c r="BB62">
+        <v>-0.5372032863913034</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>0.2711818952007405</v>
       </c>
+      <c r="BB63">
+        <v>0.2711818952007405</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>-0.07397500112315925</v>
       </c>
+      <c r="BB64">
+        <v>-0.07397500112315925</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>0.1388009164387825</v>
       </c>
+      <c r="BB65">
+        <v>0.1388009164387825</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>-0.4989801917293875</v>
       </c>
+      <c r="BB66">
+        <v>-0.4989801917293875</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>0.2365428825421532</v>
       </c>
+      <c r="BB67">
+        <v>0.2365428825421532</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>-0.2955890549112326</v>
       </c>
+      <c r="BB68">
+        <v>-0.2955890549112326</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>0.1051437241507784</v>
       </c>
+      <c r="BB69">
+        <v>0.1051437241507784</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>-0.2005382402049349</v>
       </c>
+      <c r="BB70">
+        <v>-0.2005382402049349</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>0.3062442926496516</v>
       </c>
+      <c r="BB71">
+        <v>0.3062442926496516</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>-0.2766843069119602</v>
       </c>
+      <c r="BB72">
+        <v>-0.2099029780610664</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.3647997790433188</v>
       </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.2775501009490285</v>
       </c>
+      <c r="BB74">
+        <v>0.4020965382952741</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.1107837581406829</v>
       </c>
+      <c r="BB75">
+        <v>0.1648193638571329</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.2093403799538062</v>
       </c>
+      <c r="BB76">
+        <v>0.137888861916503</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.2204669886860973</v>
       </c>
+      <c r="BB77">
+        <v>0.2246336061890071</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.1844255275151706</v>
       </c>
+      <c r="BB78">
+        <v>0.1963670667155742</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.1961987297381253</v>
       </c>
+      <c r="BB79">
+        <v>0.1808293611245649</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.2026499097215609</v>
       </c>
+      <c r="BB80">
+        <v>0.1963958306960499</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.1961689520422347</v>
       </c>
+      <c r="BB81">
+        <v>0.1947212848581776</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.1968719308882613</v>
+      </c>
+      <c r="BB82">
+        <v>0.1904909329952993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.1928178312549761</v>
       </c>
     </row>
   </sheetData>
